--- a/database/industries/ghaza/ghezar/cost/quarterly.xlsx
+++ b/database/industries/ghaza/ghezar/cost/quarterly.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\ghaza\ghezar\cost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F5B204E-B81C-4DFE-981B-85BD103CA78F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD383D9E-8FB7-40DC-B36D-D9BA3871ADA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="64">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>غزر-صنعتی زر ماکارون</t>
@@ -34,24 +34,6 @@
     <t>بهای تمام شده</t>
   </si>
   <si>
-    <t>فصل اول منتهی به 1399/03</t>
-  </si>
-  <si>
-    <t>فصل دوم منتهی به 1399/06</t>
-  </si>
-  <si>
-    <t>فصل سوم منتهی به 1399/09</t>
-  </si>
-  <si>
-    <t>فصل چهارم منتهی به 1399/12</t>
-  </si>
-  <si>
-    <t>فصل اول منتهی به 1400/03</t>
-  </si>
-  <si>
-    <t>فصل دوم منتهی به 1400/06</t>
-  </si>
-  <si>
     <t>فصل سوم منتهی به 1400/09</t>
   </si>
   <si>
@@ -62,6 +44,9 @@
   </si>
   <si>
     <t>فصل دوم منتهی به 1401/06</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1401/09</t>
   </si>
   <si>
     <t>مواد مستقیم مصرفی</t>
@@ -682,16 +667,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:N141"/>
+  <dimension ref="B1:I141"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="14" width="20" customWidth="1"/>
+    <col min="2" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -700,13 +685,8 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-    </row>
-    <row r="2" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -717,13 +697,8 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-    </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -734,13 +709,8 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-    </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -749,13 +719,8 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-    </row>
-    <row r="5" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    </row>
+    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -766,13 +731,8 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-    </row>
-    <row r="6" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    </row>
+    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -783,13 +743,8 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -798,13 +753,8 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-    </row>
-    <row r="8" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
@@ -825,23 +775,8 @@
       <c r="I8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J8" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="M8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="N8" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -850,163 +785,98 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
-        <v>2056707</v>
+        <v>3720191</v>
       </c>
       <c r="F10" s="9">
-        <v>2413007</v>
+        <v>3315611</v>
       </c>
       <c r="G10" s="9">
-        <v>2870968</v>
+        <v>6806465</v>
       </c>
       <c r="H10" s="9">
-        <v>1918201</v>
+        <v>7850877</v>
       </c>
       <c r="I10" s="9">
-        <v>3121635</v>
-      </c>
-      <c r="J10" s="9">
-        <v>3509404</v>
-      </c>
-      <c r="K10" s="9">
-        <v>3720191</v>
-      </c>
-      <c r="L10" s="9">
-        <v>3315611</v>
-      </c>
-      <c r="M10" s="9">
-        <v>6806465</v>
-      </c>
-      <c r="N10" s="9">
-        <v>7850878</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
+        <v>8583386</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>59966</v>
+        <v>103456</v>
       </c>
       <c r="F11" s="11">
-        <v>61663</v>
+        <v>108576</v>
       </c>
       <c r="G11" s="11">
-        <v>62789</v>
+        <v>132915</v>
       </c>
       <c r="H11" s="11">
-        <v>63151</v>
+        <v>151825</v>
       </c>
       <c r="I11" s="11">
-        <v>90713</v>
-      </c>
-      <c r="J11" s="11">
-        <v>99650</v>
-      </c>
-      <c r="K11" s="11">
-        <v>103456</v>
-      </c>
-      <c r="L11" s="11">
-        <v>108576</v>
-      </c>
-      <c r="M11" s="11">
-        <v>132915</v>
-      </c>
-      <c r="N11" s="11">
-        <v>151825</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
+        <v>131159</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
-        <v>121141</v>
+        <v>185895</v>
       </c>
       <c r="F12" s="9">
-        <v>110748</v>
+        <v>368640</v>
       </c>
       <c r="G12" s="9">
-        <v>158204</v>
+        <v>310135</v>
       </c>
       <c r="H12" s="9">
-        <v>160743</v>
+        <v>327519</v>
       </c>
       <c r="I12" s="9">
-        <v>179289</v>
-      </c>
-      <c r="J12" s="9">
-        <v>220172</v>
-      </c>
-      <c r="K12" s="9">
-        <v>185895</v>
-      </c>
-      <c r="L12" s="9">
-        <v>368640</v>
-      </c>
-      <c r="M12" s="9">
-        <v>310135</v>
-      </c>
-      <c r="N12" s="9">
-        <v>327519</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
+        <v>245876</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="12" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13">
-        <v>2237814</v>
+        <v>4009542</v>
       </c>
       <c r="F13" s="13">
-        <v>2585418</v>
+        <v>3792827</v>
       </c>
       <c r="G13" s="13">
-        <v>3091961</v>
+        <v>7249515</v>
       </c>
       <c r="H13" s="13">
-        <v>2142095</v>
+        <v>8330221</v>
       </c>
       <c r="I13" s="13">
-        <v>3391637</v>
-      </c>
-      <c r="J13" s="13">
-        <v>3829226</v>
-      </c>
-      <c r="K13" s="13">
-        <v>4009542</v>
-      </c>
-      <c r="L13" s="13">
-        <v>3792827</v>
-      </c>
-      <c r="M13" s="13">
-        <v>7249515</v>
-      </c>
-      <c r="N13" s="13">
-        <v>8330222</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
+        <v>8960421</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
@@ -1020,67 +890,37 @@
         <v>0</v>
       </c>
       <c r="H14" s="9">
-        <v>0</v>
+        <v>-78718</v>
       </c>
       <c r="I14" s="9">
-        <v>0</v>
-      </c>
-      <c r="J14" s="9">
-        <v>0</v>
-      </c>
-      <c r="K14" s="9">
-        <v>0</v>
-      </c>
-      <c r="L14" s="9">
-        <v>0</v>
-      </c>
-      <c r="M14" s="9">
-        <v>0</v>
-      </c>
-      <c r="N14" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
+        <v>78718</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13">
-        <v>2237814</v>
+        <v>4009542</v>
       </c>
       <c r="F15" s="13">
-        <v>2585418</v>
+        <v>3792827</v>
       </c>
       <c r="G15" s="13">
-        <v>3091961</v>
+        <v>7249515</v>
       </c>
       <c r="H15" s="13">
-        <v>2142095</v>
+        <v>8251503</v>
       </c>
       <c r="I15" s="13">
-        <v>3391637</v>
-      </c>
-      <c r="J15" s="13">
-        <v>3829226</v>
-      </c>
-      <c r="K15" s="13">
-        <v>4009542</v>
-      </c>
-      <c r="L15" s="13">
-        <v>3792827</v>
-      </c>
-      <c r="M15" s="13">
-        <v>7249515</v>
-      </c>
-      <c r="N15" s="13">
-        <v>8330222</v>
-      </c>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
+        <v>9039139</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
@@ -1088,10 +928,10 @@
         <v>0</v>
       </c>
       <c r="F16" s="9">
-        <v>-16192</v>
+        <v>-73091</v>
       </c>
       <c r="G16" s="9">
-        <v>16192</v>
+        <v>0</v>
       </c>
       <c r="H16" s="9">
         <v>0</v>
@@ -1099,25 +939,10 @@
       <c r="I16" s="9">
         <v>0</v>
       </c>
-      <c r="J16" s="9">
-        <v>0</v>
-      </c>
-      <c r="K16" s="9">
-        <v>0</v>
-      </c>
-      <c r="L16" s="9">
-        <v>0</v>
-      </c>
-      <c r="M16" s="9">
-        <v>0</v>
-      </c>
-      <c r="N16" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
@@ -1136,173 +961,98 @@
       <c r="I17" s="11">
         <v>0</v>
       </c>
-      <c r="J17" s="11">
-        <v>0</v>
-      </c>
-      <c r="K17" s="11">
-        <v>0</v>
-      </c>
-      <c r="L17" s="11">
-        <v>0</v>
-      </c>
-      <c r="M17" s="11">
-        <v>0</v>
-      </c>
-      <c r="N17" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="14" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
       <c r="E18" s="15">
-        <v>2237814</v>
+        <v>4009542</v>
       </c>
       <c r="F18" s="15">
-        <v>2569226</v>
+        <v>3719736</v>
       </c>
       <c r="G18" s="15">
-        <v>3108153</v>
+        <v>7249515</v>
       </c>
       <c r="H18" s="15">
-        <v>2142095</v>
+        <v>8251503</v>
       </c>
       <c r="I18" s="15">
-        <v>3391637</v>
-      </c>
-      <c r="J18" s="15">
-        <v>3829226</v>
-      </c>
-      <c r="K18" s="15">
-        <v>4009542</v>
-      </c>
-      <c r="L18" s="15">
-        <v>3792827</v>
-      </c>
-      <c r="M18" s="15">
-        <v>7249515</v>
-      </c>
-      <c r="N18" s="15">
-        <v>8330222</v>
-      </c>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
+        <v>9039139</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
       <c r="E19" s="11">
-        <v>145011</v>
+        <v>0</v>
       </c>
       <c r="F19" s="11">
-        <v>0</v>
+        <v>108914</v>
       </c>
       <c r="G19" s="11">
-        <v>0</v>
+        <v>259260</v>
       </c>
       <c r="H19" s="11">
-        <v>-59371</v>
+        <v>724949</v>
       </c>
       <c r="I19" s="11">
-        <v>584842</v>
-      </c>
-      <c r="J19" s="11">
-        <v>1</v>
-      </c>
-      <c r="K19" s="11">
-        <v>0</v>
-      </c>
-      <c r="L19" s="11">
-        <v>-1833</v>
-      </c>
-      <c r="M19" s="11">
-        <v>259260</v>
-      </c>
-      <c r="N19" s="11">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
+        <v>826095</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9">
-        <v>-392077</v>
+        <v>-108914</v>
       </c>
       <c r="F20" s="9">
-        <v>-277378</v>
+        <v>-260004</v>
       </c>
       <c r="G20" s="9">
-        <v>-4186</v>
+        <v>-724949</v>
       </c>
       <c r="H20" s="9">
-        <v>88798</v>
+        <v>-826095</v>
       </c>
       <c r="I20" s="9">
-        <v>-556351</v>
-      </c>
-      <c r="J20" s="9">
-        <v>345226</v>
-      </c>
-      <c r="K20" s="9">
-        <v>-108914</v>
-      </c>
-      <c r="L20" s="9">
-        <v>60035</v>
-      </c>
-      <c r="M20" s="9">
-        <v>-724949</v>
-      </c>
-      <c r="N20" s="9">
-        <v>-101146</v>
-      </c>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
+        <v>-625746</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
       <c r="E21" s="13">
-        <v>1990748</v>
+        <v>3900628</v>
       </c>
       <c r="F21" s="13">
-        <v>2291848</v>
+        <v>3777938</v>
       </c>
       <c r="G21" s="13">
-        <v>3103967</v>
+        <v>6783826</v>
       </c>
       <c r="H21" s="13">
-        <v>2171522</v>
+        <v>8151101</v>
       </c>
       <c r="I21" s="13">
-        <v>3420128</v>
-      </c>
-      <c r="J21" s="13">
-        <v>4174453</v>
-      </c>
-      <c r="K21" s="13">
-        <v>3900628</v>
-      </c>
-      <c r="L21" s="13">
-        <v>3851029</v>
-      </c>
-      <c r="M21" s="13">
-        <v>6783826</v>
-      </c>
-      <c r="N21" s="13">
-        <v>8229820</v>
-      </c>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
+        <v>9239488</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
@@ -1316,65 +1066,35 @@
         <v>0</v>
       </c>
       <c r="H22" s="9">
-        <v>961258</v>
+        <v>-25873</v>
       </c>
       <c r="I22" s="9">
-        <v>0</v>
-      </c>
-      <c r="J22" s="9">
-        <v>0</v>
-      </c>
-      <c r="K22" s="9">
-        <v>0</v>
-      </c>
-      <c r="L22" s="9">
-        <v>-73091</v>
-      </c>
-      <c r="M22" s="9">
-        <v>0</v>
-      </c>
-      <c r="N22" s="9">
-        <v>-25873</v>
-      </c>
-    </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
+        <v>55114</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
       <c r="E23" s="13">
-        <v>1990748</v>
+        <v>3900628</v>
       </c>
       <c r="F23" s="13">
-        <v>2291848</v>
+        <v>3777938</v>
       </c>
       <c r="G23" s="13">
-        <v>3103967</v>
+        <v>6783826</v>
       </c>
       <c r="H23" s="13">
-        <v>3132780</v>
+        <v>8125228</v>
       </c>
       <c r="I23" s="13">
-        <v>3420128</v>
-      </c>
-      <c r="J23" s="13">
-        <v>4174453</v>
-      </c>
-      <c r="K23" s="13">
-        <v>3900628</v>
-      </c>
-      <c r="L23" s="13">
-        <v>3777938</v>
-      </c>
-      <c r="M23" s="13">
-        <v>6783826</v>
-      </c>
-      <c r="N23" s="13">
-        <v>8203947</v>
-      </c>
-    </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
+        <v>9294602</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1383,13 +1103,8 @@
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
-    </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1398,13 +1113,8 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
-    </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1413,15 +1123,10 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
-    </row>
-    <row r="27" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B27" s="7" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
@@ -1440,23 +1145,8 @@
       <c r="I27" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J27" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="K27" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L27" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="M27" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="N27" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1465,64 +1155,44 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
-    </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="8" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D29" s="9"/>
       <c r="E29" s="9">
-        <v>550336</v>
-      </c>
-      <c r="F29" s="9">
-        <v>54464551</v>
+        <v>0</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>26</v>
       </c>
       <c r="G29" s="9">
-        <v>627863</v>
+        <v>0</v>
       </c>
       <c r="H29" s="9">
-        <v>1101988</v>
+        <v>0</v>
       </c>
       <c r="I29" s="9">
-        <v>0</v>
-      </c>
-      <c r="J29" s="9">
-        <v>0</v>
-      </c>
-      <c r="K29" s="9">
-        <v>0</v>
-      </c>
-      <c r="L29" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="M29" s="9">
-        <v>0</v>
-      </c>
-      <c r="N29" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D30" s="11"/>
       <c r="E30" s="11">
         <v>0</v>
       </c>
-      <c r="F30" s="11">
-        <v>0</v>
+      <c r="F30" s="11" t="s">
+        <v>26</v>
       </c>
       <c r="G30" s="11">
         <v>0</v>
@@ -1531,62 +1201,32 @@
         <v>0</v>
       </c>
       <c r="I30" s="11">
-        <v>0</v>
-      </c>
-      <c r="J30" s="11">
-        <v>0</v>
-      </c>
-      <c r="K30" s="11">
-        <v>0</v>
-      </c>
-      <c r="L30" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="M30" s="11">
-        <v>0</v>
-      </c>
-      <c r="N30" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
+        <v>8411</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="14" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C31" s="15"/>
       <c r="D31" s="15"/>
       <c r="E31" s="15">
-        <v>550336</v>
+        <v>0</v>
       </c>
       <c r="F31" s="15">
-        <v>54464551</v>
+        <v>0</v>
       </c>
       <c r="G31" s="15">
-        <v>627863</v>
+        <v>0</v>
       </c>
       <c r="H31" s="15">
-        <v>1101988</v>
+        <v>0</v>
       </c>
       <c r="I31" s="15">
-        <v>0</v>
-      </c>
-      <c r="J31" s="15">
-        <v>0</v>
-      </c>
-      <c r="K31" s="15">
-        <v>0</v>
-      </c>
-      <c r="L31" s="15">
-        <v>0</v>
-      </c>
-      <c r="M31" s="15">
-        <v>0</v>
-      </c>
-      <c r="N31" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
+        <v>9434</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -1595,13 +1235,8 @@
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -1610,13 +1245,8 @@
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -1625,15 +1255,10 @@
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
-    </row>
-    <row r="35" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B35" s="7" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
@@ -1652,23 +1277,8 @@
       <c r="I35" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J35" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="K35" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L35" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="M35" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="N35" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -1677,128 +1287,78 @@
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
-      <c r="N36" s="1"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B37" s="8" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D37" s="9"/>
       <c r="E37" s="9">
-        <v>53968637</v>
+        <v>-120680493</v>
       </c>
       <c r="F37" s="9">
-        <v>58394455</v>
+        <v>55858</v>
       </c>
       <c r="G37" s="9">
-        <v>65276344</v>
+        <v>40271</v>
       </c>
       <c r="H37" s="9">
-        <v>53625797</v>
+        <v>38151</v>
       </c>
       <c r="I37" s="9">
-        <v>59138700</v>
-      </c>
-      <c r="J37" s="9">
-        <v>61726097</v>
-      </c>
-      <c r="K37" s="9">
-        <v>-120680493</v>
-      </c>
-      <c r="L37" s="9">
-        <v>55858</v>
-      </c>
-      <c r="M37" s="9">
-        <v>40271</v>
-      </c>
-      <c r="N37" s="9">
-        <v>38151</v>
-      </c>
-    </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
+        <v>44512</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B38" s="10" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D38" s="11"/>
       <c r="E38" s="11">
+        <v>0</v>
+      </c>
+      <c r="F38" s="11">
+        <v>0</v>
+      </c>
+      <c r="G38" s="11">
         <v>1</v>
       </c>
-      <c r="F38" s="11">
-        <v>0</v>
-      </c>
-      <c r="G38" s="11">
-        <v>0</v>
-      </c>
       <c r="H38" s="11">
-        <v>0</v>
+        <v>19062</v>
       </c>
       <c r="I38" s="11">
-        <v>1</v>
-      </c>
-      <c r="J38" s="11">
-        <v>0</v>
-      </c>
-      <c r="K38" s="11">
-        <v>0</v>
-      </c>
-      <c r="L38" s="11">
-        <v>0</v>
-      </c>
-      <c r="M38" s="11">
-        <v>1</v>
-      </c>
-      <c r="N38" s="11">
-        <v>19062</v>
-      </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
+        <v>9338</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39" s="14" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C39" s="15"/>
       <c r="D39" s="15"/>
       <c r="E39" s="15">
-        <v>53968638</v>
+        <v>-120680493</v>
       </c>
       <c r="F39" s="15">
-        <v>58394455</v>
+        <v>55858</v>
       </c>
       <c r="G39" s="15">
-        <v>65276344</v>
+        <v>40272</v>
       </c>
       <c r="H39" s="15">
-        <v>53625797</v>
+        <v>57213</v>
       </c>
       <c r="I39" s="15">
-        <v>59138701</v>
-      </c>
-      <c r="J39" s="15">
-        <v>61726097</v>
-      </c>
-      <c r="K39" s="15">
-        <v>-120680493</v>
-      </c>
-      <c r="L39" s="15">
-        <v>55858</v>
-      </c>
-      <c r="M39" s="15">
-        <v>40272</v>
-      </c>
-      <c r="N39" s="15">
-        <v>57213</v>
-      </c>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
+        <v>53850</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -1807,13 +1367,8 @@
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
-      <c r="K40" s="1"/>
-      <c r="L40" s="1"/>
-      <c r="M40" s="1"/>
-      <c r="N40" s="1"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -1822,13 +1377,8 @@
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
-      <c r="K41" s="1"/>
-      <c r="L41" s="1"/>
-      <c r="M41" s="1"/>
-      <c r="N41" s="1"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -1837,15 +1387,10 @@
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
-      <c r="K42" s="1"/>
-      <c r="L42" s="1"/>
-      <c r="M42" s="1"/>
-      <c r="N42" s="1"/>
-    </row>
-    <row r="43" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="43" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B43" s="7" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
@@ -1864,23 +1409,8 @@
       <c r="I43" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J43" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="K43" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L43" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="M43" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="N43" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -1889,128 +1419,78 @@
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
-      <c r="J44" s="1"/>
-      <c r="K44" s="1"/>
-      <c r="L44" s="1"/>
-      <c r="M44" s="1"/>
-      <c r="N44" s="1"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B45" s="8" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D45" s="9"/>
       <c r="E45" s="9">
-        <v>54422</v>
+        <v>-120680493</v>
       </c>
       <c r="F45" s="9">
-        <v>112231143</v>
+        <v>55858</v>
       </c>
       <c r="G45" s="9">
-        <v>64802219</v>
+        <v>40271</v>
       </c>
       <c r="H45" s="9">
-        <v>54727785</v>
+        <v>37128</v>
       </c>
       <c r="I45" s="9">
-        <v>59138700</v>
-      </c>
-      <c r="J45" s="9">
-        <v>61726097</v>
-      </c>
-      <c r="K45" s="9">
-        <v>-120680493</v>
-      </c>
-      <c r="L45" s="9">
-        <v>55858</v>
-      </c>
-      <c r="M45" s="9">
-        <v>40271</v>
-      </c>
-      <c r="N45" s="9">
-        <v>37128</v>
-      </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
+        <v>44465</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B46" s="10" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D46" s="11"/>
       <c r="E46" s="11">
+        <v>0</v>
+      </c>
+      <c r="F46" s="11">
+        <v>0</v>
+      </c>
+      <c r="G46" s="11">
         <v>1</v>
       </c>
-      <c r="F46" s="11">
-        <v>0</v>
-      </c>
-      <c r="G46" s="11">
-        <v>0</v>
-      </c>
       <c r="H46" s="11">
-        <v>0</v>
+        <v>19297</v>
       </c>
       <c r="I46" s="11">
-        <v>1</v>
-      </c>
-      <c r="J46" s="11">
-        <v>0</v>
-      </c>
-      <c r="K46" s="11">
-        <v>0</v>
-      </c>
-      <c r="L46" s="11">
-        <v>0</v>
-      </c>
-      <c r="M46" s="11">
-        <v>1</v>
-      </c>
-      <c r="N46" s="11">
-        <v>19297</v>
-      </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
+        <v>9015</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B47" s="14" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C47" s="15"/>
       <c r="D47" s="15"/>
       <c r="E47" s="15">
-        <v>54423</v>
+        <v>-120680493</v>
       </c>
       <c r="F47" s="15">
-        <v>112231143</v>
+        <v>55858</v>
       </c>
       <c r="G47" s="15">
-        <v>64802219</v>
+        <v>40272</v>
       </c>
       <c r="H47" s="15">
-        <v>54727785</v>
+        <v>56425</v>
       </c>
       <c r="I47" s="15">
-        <v>59138701</v>
-      </c>
-      <c r="J47" s="15">
-        <v>61726097</v>
-      </c>
-      <c r="K47" s="15">
-        <v>-120680493</v>
-      </c>
-      <c r="L47" s="15">
-        <v>55858</v>
-      </c>
-      <c r="M47" s="15">
-        <v>40272</v>
-      </c>
-      <c r="N47" s="15">
-        <v>56425</v>
-      </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
+        <v>53480</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -2019,13 +1499,8 @@
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
-      <c r="J48" s="1"/>
-      <c r="K48" s="1"/>
-      <c r="L48" s="1"/>
-      <c r="M48" s="1"/>
-      <c r="N48" s="1"/>
-    </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -2034,13 +1509,8 @@
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
-      <c r="J49" s="1"/>
-      <c r="K49" s="1"/>
-      <c r="L49" s="1"/>
-      <c r="M49" s="1"/>
-      <c r="N49" s="1"/>
-    </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -2049,15 +1519,10 @@
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
-      <c r="J50" s="1"/>
-      <c r="K50" s="1"/>
-      <c r="L50" s="1"/>
-      <c r="M50" s="1"/>
-      <c r="N50" s="1"/>
-    </row>
-    <row r="51" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="51" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B51" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C51" s="6"/>
       <c r="D51" s="6"/>
@@ -2076,23 +1541,8 @@
       <c r="I51" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J51" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="K51" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L51" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="M51" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="N51" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -2101,57 +1551,37 @@
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
-      <c r="J52" s="1"/>
-      <c r="K52" s="1"/>
-      <c r="L52" s="1"/>
-      <c r="M52" s="1"/>
-      <c r="N52" s="1"/>
-    </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B53" s="8" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D53" s="9"/>
       <c r="E53" s="9">
-        <v>54464551</v>
+        <v>0</v>
       </c>
       <c r="F53" s="9">
-        <v>627863</v>
+        <v>0</v>
       </c>
       <c r="G53" s="9">
-        <v>1101988</v>
+        <v>0</v>
       </c>
       <c r="H53" s="9">
-        <v>0</v>
+        <v>1023</v>
       </c>
       <c r="I53" s="9">
-        <v>0</v>
-      </c>
-      <c r="J53" s="9">
-        <v>0</v>
-      </c>
-      <c r="K53" s="9">
-        <v>0</v>
-      </c>
-      <c r="L53" s="9">
-        <v>0</v>
-      </c>
-      <c r="M53" s="9">
-        <v>0</v>
-      </c>
-      <c r="N53" s="9">
-        <v>1023</v>
-      </c>
-    </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B54" s="10" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D54" s="11"/>
       <c r="E54" s="11">
@@ -2164,65 +1594,35 @@
         <v>0</v>
       </c>
       <c r="H54" s="11">
-        <v>0</v>
+        <v>8411</v>
       </c>
       <c r="I54" s="11">
-        <v>0</v>
-      </c>
-      <c r="J54" s="11">
-        <v>0</v>
-      </c>
-      <c r="K54" s="11">
-        <v>0</v>
-      </c>
-      <c r="L54" s="11">
-        <v>0</v>
-      </c>
-      <c r="M54" s="11">
-        <v>0</v>
-      </c>
-      <c r="N54" s="11">
-        <v>8411</v>
-      </c>
-    </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
+        <v>8734</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B55" s="14" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C55" s="15"/>
       <c r="D55" s="15"/>
       <c r="E55" s="15">
-        <v>54464551</v>
+        <v>0</v>
       </c>
       <c r="F55" s="15">
-        <v>627863</v>
+        <v>0</v>
       </c>
       <c r="G55" s="15">
-        <v>1101988</v>
+        <v>0</v>
       </c>
       <c r="H55" s="15">
-        <v>0</v>
+        <v>9434</v>
       </c>
       <c r="I55" s="15">
-        <v>0</v>
-      </c>
-      <c r="J55" s="15">
-        <v>0</v>
-      </c>
-      <c r="K55" s="15">
-        <v>0</v>
-      </c>
-      <c r="L55" s="15">
-        <v>0</v>
-      </c>
-      <c r="M55" s="15">
-        <v>0</v>
-      </c>
-      <c r="N55" s="15">
-        <v>9434</v>
-      </c>
-    </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
+        <v>9804</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -2231,13 +1631,8 @@
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
-      <c r="J56" s="1"/>
-      <c r="K56" s="1"/>
-      <c r="L56" s="1"/>
-      <c r="M56" s="1"/>
-      <c r="N56" s="1"/>
-    </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -2246,13 +1641,8 @@
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
-      <c r="J57" s="1"/>
-      <c r="K57" s="1"/>
-      <c r="L57" s="1"/>
-      <c r="M57" s="1"/>
-      <c r="N57" s="1"/>
-    </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -2261,15 +1651,10 @@
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
-      <c r="J58" s="1"/>
-      <c r="K58" s="1"/>
-      <c r="L58" s="1"/>
-      <c r="M58" s="1"/>
-      <c r="N58" s="1"/>
-    </row>
-    <row r="59" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="59" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B59" s="7" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C59" s="6"/>
       <c r="D59" s="6"/>
@@ -2288,23 +1673,8 @@
       <c r="I59" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J59" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="K59" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L59" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="M59" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="N59" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -2313,64 +1683,44 @@
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
-      <c r="J60" s="1"/>
-      <c r="K60" s="1"/>
-      <c r="L60" s="1"/>
-      <c r="M60" s="1"/>
-      <c r="N60" s="1"/>
-    </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B61" s="8" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D61" s="9"/>
       <c r="E61" s="9">
-        <v>13242</v>
-      </c>
-      <c r="F61" s="9">
-        <v>3000</v>
+        <v>0</v>
+      </c>
+      <c r="F61" s="9" t="s">
+        <v>26</v>
       </c>
       <c r="G61" s="9">
-        <v>19676</v>
+        <v>0</v>
       </c>
       <c r="H61" s="9">
-        <v>37314</v>
+        <v>0</v>
       </c>
       <c r="I61" s="9">
-        <v>0</v>
-      </c>
-      <c r="J61" s="9">
-        <v>0</v>
-      </c>
-      <c r="K61" s="9">
-        <v>0</v>
-      </c>
-      <c r="L61" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="M61" s="9">
-        <v>0</v>
-      </c>
-      <c r="N61" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.3">
+        <v>161879</v>
+      </c>
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B62" s="10" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D62" s="11"/>
       <c r="E62" s="11">
         <v>0</v>
       </c>
-      <c r="F62" s="11">
-        <v>0</v>
+      <c r="F62" s="11" t="s">
+        <v>26</v>
       </c>
       <c r="G62" s="11">
         <v>0</v>
@@ -2379,62 +1729,32 @@
         <v>0</v>
       </c>
       <c r="I62" s="11">
-        <v>0</v>
-      </c>
-      <c r="J62" s="11">
-        <v>0</v>
-      </c>
-      <c r="K62" s="11">
-        <v>0</v>
-      </c>
-      <c r="L62" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="M62" s="11">
-        <v>0</v>
-      </c>
-      <c r="N62" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.3">
+        <v>1186531</v>
+      </c>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B63" s="14" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C63" s="15"/>
       <c r="D63" s="15"/>
       <c r="E63" s="15">
-        <v>13242</v>
+        <v>0</v>
       </c>
       <c r="F63" s="15">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="G63" s="15">
-        <v>19676</v>
+        <v>0</v>
       </c>
       <c r="H63" s="15">
-        <v>37314</v>
+        <v>0</v>
       </c>
       <c r="I63" s="15">
-        <v>0</v>
-      </c>
-      <c r="J63" s="15">
-        <v>0</v>
-      </c>
-      <c r="K63" s="15">
-        <v>0</v>
-      </c>
-      <c r="L63" s="15">
-        <v>0</v>
-      </c>
-      <c r="M63" s="15">
-        <v>0</v>
-      </c>
-      <c r="N63" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.3">
+        <v>1348410</v>
+      </c>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -2443,13 +1763,8 @@
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
-      <c r="J64" s="1"/>
-      <c r="K64" s="1"/>
-      <c r="L64" s="1"/>
-      <c r="M64" s="1"/>
-      <c r="N64" s="1"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -2458,13 +1773,8 @@
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
-      <c r="J65" s="1"/>
-      <c r="K65" s="1"/>
-      <c r="L65" s="1"/>
-      <c r="M65" s="1"/>
-      <c r="N65" s="1"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -2473,15 +1783,10 @@
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
-      <c r="J66" s="1"/>
-      <c r="K66" s="1"/>
-      <c r="L66" s="1"/>
-      <c r="M66" s="1"/>
-      <c r="N66" s="1"/>
-    </row>
-    <row r="67" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="67" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B67" s="7" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C67" s="6"/>
       <c r="D67" s="6"/>
@@ -2500,23 +1805,8 @@
       <c r="I67" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J67" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="K67" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L67" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="M67" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="N67" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -2525,128 +1815,78 @@
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
-      <c r="J68" s="1"/>
-      <c r="K68" s="1"/>
-      <c r="L68" s="1"/>
-      <c r="M68" s="1"/>
-      <c r="N68" s="1"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B69" s="8" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D69" s="9"/>
       <c r="E69" s="9">
-        <v>1689621</v>
+        <v>2689694</v>
       </c>
       <c r="F69" s="9">
-        <v>1835641</v>
+        <v>2286425</v>
       </c>
       <c r="G69" s="9">
-        <v>2159611</v>
+        <v>5666588</v>
       </c>
       <c r="H69" s="9">
-        <v>1955823</v>
+        <v>6266983</v>
       </c>
       <c r="I69" s="9">
-        <v>2365548</v>
-      </c>
-      <c r="J69" s="9">
-        <v>2469044</v>
-      </c>
-      <c r="K69" s="9">
-        <v>2689694</v>
-      </c>
-      <c r="L69" s="9">
-        <v>2286425</v>
-      </c>
-      <c r="M69" s="9">
-        <v>5666588</v>
-      </c>
-      <c r="N69" s="9">
-        <v>6266983</v>
-      </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.3">
+        <v>7007608</v>
+      </c>
+    </row>
+    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B70" s="10" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C70" s="11" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D70" s="11"/>
       <c r="E70" s="11">
-        <v>356844</v>
+        <v>1030497</v>
       </c>
       <c r="F70" s="11">
-        <v>594042</v>
+        <v>-80416</v>
       </c>
       <c r="G70" s="11">
-        <v>728995</v>
+        <v>1139877</v>
       </c>
       <c r="H70" s="11">
-        <v>886322</v>
+        <v>2261526</v>
       </c>
       <c r="I70" s="11">
-        <v>756087</v>
-      </c>
-      <c r="J70" s="11">
-        <v>1040360</v>
-      </c>
-      <c r="K70" s="11">
-        <v>1030497</v>
-      </c>
-      <c r="L70" s="11">
-        <v>-80416</v>
-      </c>
-      <c r="M70" s="11">
-        <v>1139877</v>
-      </c>
-      <c r="N70" s="11">
-        <v>2261526</v>
-      </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.3">
+        <v>1547531</v>
+      </c>
+    </row>
+    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B71" s="14" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C71" s="15"/>
       <c r="D71" s="15"/>
       <c r="E71" s="15">
-        <v>2046465</v>
+        <v>3720191</v>
       </c>
       <c r="F71" s="15">
-        <v>2429683</v>
+        <v>2206009</v>
       </c>
       <c r="G71" s="15">
-        <v>2888606</v>
+        <v>6806465</v>
       </c>
       <c r="H71" s="15">
-        <v>2842145</v>
+        <v>8528509</v>
       </c>
       <c r="I71" s="15">
-        <v>3121635</v>
-      </c>
-      <c r="J71" s="15">
-        <v>3509404</v>
-      </c>
-      <c r="K71" s="15">
-        <v>3720191</v>
-      </c>
-      <c r="L71" s="15">
-        <v>2206009</v>
-      </c>
-      <c r="M71" s="15">
-        <v>6806465</v>
-      </c>
-      <c r="N71" s="15">
-        <v>8528509</v>
-      </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.3">
+        <v>8555139</v>
+      </c>
+    </row>
+    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -2655,13 +1895,8 @@
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
-      <c r="J72" s="1"/>
-      <c r="K72" s="1"/>
-      <c r="L72" s="1"/>
-      <c r="M72" s="1"/>
-      <c r="N72" s="1"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -2670,13 +1905,8 @@
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
-      <c r="J73" s="1"/>
-      <c r="K73" s="1"/>
-      <c r="L73" s="1"/>
-      <c r="M73" s="1"/>
-      <c r="N73" s="1"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -2685,15 +1915,10 @@
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
-      <c r="J74" s="1"/>
-      <c r="K74" s="1"/>
-      <c r="L74" s="1"/>
-      <c r="M74" s="1"/>
-      <c r="N74" s="1"/>
-    </row>
-    <row r="75" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="75" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B75" s="7" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C75" s="6"/>
       <c r="D75" s="6"/>
@@ -2712,23 +1937,8 @@
       <c r="I75" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J75" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="K75" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L75" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="M75" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="N75" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -2737,128 +1947,78 @@
       <c r="G76" s="1"/>
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
-      <c r="J76" s="1"/>
-      <c r="K76" s="1"/>
-      <c r="L76" s="1"/>
-      <c r="M76" s="1"/>
-      <c r="N76" s="1"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B77" s="8" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D77" s="9"/>
       <c r="E77" s="9">
-        <v>1699863</v>
+        <v>2689694</v>
       </c>
       <c r="F77" s="9">
-        <v>1818965</v>
+        <v>2286425</v>
       </c>
       <c r="G77" s="9">
-        <v>2141973</v>
+        <v>5666588</v>
       </c>
       <c r="H77" s="9">
-        <v>1993137</v>
+        <v>6105104</v>
       </c>
       <c r="I77" s="9">
-        <v>2365548</v>
-      </c>
-      <c r="J77" s="9">
-        <v>2469044</v>
-      </c>
-      <c r="K77" s="9">
-        <v>2689694</v>
-      </c>
-      <c r="L77" s="9">
-        <v>2286425</v>
-      </c>
-      <c r="M77" s="9">
-        <v>5666588</v>
-      </c>
-      <c r="N77" s="9">
-        <v>6105104</v>
-      </c>
-    </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.3">
+        <v>7001215</v>
+      </c>
+    </row>
+    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B78" s="10" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C78" s="11" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D78" s="11"/>
       <c r="E78" s="11">
-        <v>356844</v>
+        <v>1030497</v>
       </c>
       <c r="F78" s="11">
-        <v>594042</v>
+        <v>-80416</v>
       </c>
       <c r="G78" s="11">
-        <v>728995</v>
+        <v>1139877</v>
       </c>
       <c r="H78" s="11">
-        <v>886322</v>
+        <v>1745773</v>
       </c>
       <c r="I78" s="11">
-        <v>756087</v>
-      </c>
-      <c r="J78" s="11">
-        <v>1040360</v>
-      </c>
-      <c r="K78" s="11">
-        <v>1030497</v>
-      </c>
-      <c r="L78" s="11">
-        <v>-80416</v>
-      </c>
-      <c r="M78" s="11">
-        <v>1139877</v>
-      </c>
-      <c r="N78" s="11">
-        <v>1745774</v>
-      </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.3">
+        <v>1582171</v>
+      </c>
+    </row>
+    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B79" s="14" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C79" s="15"/>
       <c r="D79" s="15"/>
       <c r="E79" s="15">
-        <v>2056707</v>
+        <v>3720191</v>
       </c>
       <c r="F79" s="15">
-        <v>2413007</v>
+        <v>2206009</v>
       </c>
       <c r="G79" s="15">
-        <v>2870968</v>
+        <v>6806465</v>
       </c>
       <c r="H79" s="15">
-        <v>2879459</v>
+        <v>7850877</v>
       </c>
       <c r="I79" s="15">
-        <v>3121635</v>
-      </c>
-      <c r="J79" s="15">
-        <v>3509404</v>
-      </c>
-      <c r="K79" s="15">
-        <v>3720191</v>
-      </c>
-      <c r="L79" s="15">
-        <v>2206009</v>
-      </c>
-      <c r="M79" s="15">
-        <v>6806465</v>
-      </c>
-      <c r="N79" s="15">
-        <v>7850878</v>
-      </c>
-    </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.3">
+        <v>8583386</v>
+      </c>
+    </row>
+    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -2867,13 +2027,8 @@
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
-      <c r="J80" s="1"/>
-      <c r="K80" s="1"/>
-      <c r="L80" s="1"/>
-      <c r="M80" s="1"/>
-      <c r="N80" s="1"/>
-    </row>
-    <row r="81" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -2882,13 +2037,8 @@
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
-      <c r="J81" s="1"/>
-      <c r="K81" s="1"/>
-      <c r="L81" s="1"/>
-      <c r="M81" s="1"/>
-      <c r="N81" s="1"/>
-    </row>
-    <row r="82" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
@@ -2897,15 +2047,10 @@
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
-      <c r="J82" s="1"/>
-      <c r="K82" s="1"/>
-      <c r="L82" s="1"/>
-      <c r="M82" s="1"/>
-      <c r="N82" s="1"/>
-    </row>
-    <row r="83" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="83" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B83" s="7" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C83" s="6"/>
       <c r="D83" s="6"/>
@@ -2924,23 +2069,8 @@
       <c r="I83" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J83" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="K83" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L83" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="M83" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="N83" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="84" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
@@ -2949,57 +2079,37 @@
       <c r="G84" s="1"/>
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
-      <c r="J84" s="1"/>
-      <c r="K84" s="1"/>
-      <c r="L84" s="1"/>
-      <c r="M84" s="1"/>
-      <c r="N84" s="1"/>
-    </row>
-    <row r="85" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B85" s="8" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D85" s="9"/>
       <c r="E85" s="9">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="F85" s="9">
-        <v>19676</v>
+        <v>0</v>
       </c>
       <c r="G85" s="9">
-        <v>37314</v>
+        <v>0</v>
       </c>
       <c r="H85" s="9">
-        <v>0</v>
+        <v>161879</v>
       </c>
       <c r="I85" s="9">
-        <v>0</v>
-      </c>
-      <c r="J85" s="9">
-        <v>0</v>
-      </c>
-      <c r="K85" s="9">
-        <v>0</v>
-      </c>
-      <c r="L85" s="9">
-        <v>0</v>
-      </c>
-      <c r="M85" s="9">
-        <v>0</v>
-      </c>
-      <c r="N85" s="9">
-        <v>161879</v>
-      </c>
-    </row>
-    <row r="86" spans="2:14" x14ac:dyDescent="0.3">
+        <v>168272</v>
+      </c>
+    </row>
+    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B86" s="10" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C86" s="11" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D86" s="11"/>
       <c r="E86" s="11">
@@ -3012,65 +2122,35 @@
         <v>0</v>
       </c>
       <c r="H86" s="11">
-        <v>0</v>
+        <v>1186531</v>
       </c>
       <c r="I86" s="11">
-        <v>0</v>
-      </c>
-      <c r="J86" s="11">
-        <v>0</v>
-      </c>
-      <c r="K86" s="11">
-        <v>0</v>
-      </c>
-      <c r="L86" s="11">
-        <v>0</v>
-      </c>
-      <c r="M86" s="11">
-        <v>0</v>
-      </c>
-      <c r="N86" s="11">
-        <v>1186530</v>
-      </c>
-    </row>
-    <row r="87" spans="2:14" x14ac:dyDescent="0.3">
+        <v>1151891</v>
+      </c>
+    </row>
+    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B87" s="14" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C87" s="15"/>
       <c r="D87" s="15"/>
       <c r="E87" s="15">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="F87" s="15">
-        <v>19676</v>
+        <v>0</v>
       </c>
       <c r="G87" s="15">
-        <v>37314</v>
+        <v>0</v>
       </c>
       <c r="H87" s="15">
-        <v>0</v>
+        <v>1348410</v>
       </c>
       <c r="I87" s="15">
-        <v>0</v>
-      </c>
-      <c r="J87" s="15">
-        <v>0</v>
-      </c>
-      <c r="K87" s="15">
-        <v>0</v>
-      </c>
-      <c r="L87" s="15">
-        <v>0</v>
-      </c>
-      <c r="M87" s="15">
-        <v>0</v>
-      </c>
-      <c r="N87" s="15">
-        <v>1348409</v>
-      </c>
-    </row>
-    <row r="88" spans="2:14" x14ac:dyDescent="0.3">
+        <v>1320163</v>
+      </c>
+    </row>
+    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -3079,13 +2159,8 @@
       <c r="G88" s="1"/>
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
-      <c r="J88" s="1"/>
-      <c r="K88" s="1"/>
-      <c r="L88" s="1"/>
-      <c r="M88" s="1"/>
-      <c r="N88" s="1"/>
-    </row>
-    <row r="89" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
@@ -3094,13 +2169,8 @@
       <c r="G89" s="1"/>
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
-      <c r="J89" s="1"/>
-      <c r="K89" s="1"/>
-      <c r="L89" s="1"/>
-      <c r="M89" s="1"/>
-      <c r="N89" s="1"/>
-    </row>
-    <row r="90" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -3109,15 +2179,10 @@
       <c r="G90" s="1"/>
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
-      <c r="J90" s="1"/>
-      <c r="K90" s="1"/>
-      <c r="L90" s="1"/>
-      <c r="M90" s="1"/>
-      <c r="N90" s="1"/>
-    </row>
-    <row r="91" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="91" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B91" s="7" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C91" s="6"/>
       <c r="D91" s="6"/>
@@ -3136,23 +2201,8 @@
       <c r="I91" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J91" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="K91" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L91" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="M91" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="N91" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="92" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
@@ -3161,91 +2211,56 @@
       <c r="G92" s="1"/>
       <c r="H92" s="1"/>
       <c r="I92" s="1"/>
-      <c r="J92" s="1"/>
-      <c r="K92" s="1"/>
-      <c r="L92" s="1"/>
-      <c r="M92" s="1"/>
-      <c r="N92" s="1"/>
-    </row>
-    <row r="93" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B93" s="8" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C93" s="9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D93" s="9"/>
-      <c r="E93" s="9">
-        <v>24062</v>
-      </c>
-      <c r="F93" s="9">
-        <v>55</v>
-      </c>
-      <c r="G93" s="9">
-        <v>31338</v>
-      </c>
-      <c r="H93" s="9">
-        <v>33861</v>
+      <c r="E93" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F93" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G93" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H93" s="9" t="s">
+        <v>26</v>
       </c>
       <c r="I93" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="J93" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="K93" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="L93" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="M93" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="N93" s="9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="94" spans="2:14" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B94" s="10" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C94" s="11" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D94" s="11"/>
       <c r="E94" s="11" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F94" s="11" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G94" s="11" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="H94" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="I94" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="J94" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="K94" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="L94" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="M94" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="N94" s="11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="95" spans="2:14" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+      <c r="I94" s="11">
+        <v>141068957</v>
+      </c>
+    </row>
+    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
@@ -3254,13 +2269,8 @@
       <c r="G95" s="1"/>
       <c r="H95" s="1"/>
       <c r="I95" s="1"/>
-      <c r="J95" s="1"/>
-      <c r="K95" s="1"/>
-      <c r="L95" s="1"/>
-      <c r="M95" s="1"/>
-      <c r="N95" s="1"/>
-    </row>
-    <row r="96" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
@@ -3269,13 +2279,8 @@
       <c r="G96" s="1"/>
       <c r="H96" s="1"/>
       <c r="I96" s="1"/>
-      <c r="J96" s="1"/>
-      <c r="K96" s="1"/>
-      <c r="L96" s="1"/>
-      <c r="M96" s="1"/>
-      <c r="N96" s="1"/>
-    </row>
-    <row r="97" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
@@ -3284,15 +2289,10 @@
       <c r="G97" s="1"/>
       <c r="H97" s="1"/>
       <c r="I97" s="1"/>
-      <c r="J97" s="1"/>
-      <c r="K97" s="1"/>
-      <c r="L97" s="1"/>
-      <c r="M97" s="1"/>
-      <c r="N97" s="1"/>
-    </row>
-    <row r="98" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="98" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B98" s="7" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C98" s="6"/>
       <c r="D98" s="6"/>
@@ -3311,23 +2311,8 @@
       <c r="I98" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J98" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="K98" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L98" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="M98" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="N98" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="99" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
@@ -3336,91 +2321,56 @@
       <c r="G99" s="1"/>
       <c r="H99" s="1"/>
       <c r="I99" s="1"/>
-      <c r="J99" s="1"/>
-      <c r="K99" s="1"/>
-      <c r="L99" s="1"/>
-      <c r="M99" s="1"/>
-      <c r="N99" s="1"/>
-    </row>
-    <row r="100" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B100" s="8" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C100" s="9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D100" s="9"/>
       <c r="E100" s="9">
-        <v>31307</v>
+        <v>-22288</v>
       </c>
       <c r="F100" s="9">
-        <v>31435</v>
+        <v>40932812</v>
       </c>
       <c r="G100" s="9">
-        <v>33084</v>
+        <v>140711380</v>
       </c>
       <c r="H100" s="9">
-        <v>36472</v>
+        <v>164267857</v>
       </c>
       <c r="I100" s="9">
-        <v>40000</v>
-      </c>
-      <c r="J100" s="9">
-        <v>40000</v>
-      </c>
-      <c r="K100" s="9">
-        <v>-22288</v>
-      </c>
-      <c r="L100" s="9">
-        <v>40932812</v>
-      </c>
-      <c r="M100" s="9">
-        <v>140711380</v>
-      </c>
-      <c r="N100" s="9">
-        <v>164267857</v>
-      </c>
-    </row>
-    <row r="101" spans="2:14" x14ac:dyDescent="0.3">
+        <v>157431884</v>
+      </c>
+    </row>
+    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B101" s="10" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C101" s="11" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D101" s="11"/>
-      <c r="E101" s="11">
-        <v>356844000000</v>
+      <c r="E101" s="11" t="s">
+        <v>26</v>
       </c>
       <c r="F101" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="G101" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="H101" s="11" t="s">
-        <v>31</v>
+        <v>26</v>
+      </c>
+      <c r="G101" s="11">
+        <v>1139877000000</v>
+      </c>
+      <c r="H101" s="11">
+        <v>118640541</v>
       </c>
       <c r="I101" s="11">
-        <v>756087000000</v>
-      </c>
-      <c r="J101" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="K101" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="L101" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="M101" s="11">
-        <v>1139877000000</v>
-      </c>
-      <c r="N101" s="11">
-        <v>118640541</v>
-      </c>
-    </row>
-    <row r="102" spans="2:14" x14ac:dyDescent="0.3">
+        <v>165724031</v>
+      </c>
+    </row>
+    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
@@ -3429,13 +2379,8 @@
       <c r="G102" s="1"/>
       <c r="H102" s="1"/>
       <c r="I102" s="1"/>
-      <c r="J102" s="1"/>
-      <c r="K102" s="1"/>
-      <c r="L102" s="1"/>
-      <c r="M102" s="1"/>
-      <c r="N102" s="1"/>
-    </row>
-    <row r="103" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
@@ -3444,13 +2389,8 @@
       <c r="G103" s="1"/>
       <c r="H103" s="1"/>
       <c r="I103" s="1"/>
-      <c r="J103" s="1"/>
-      <c r="K103" s="1"/>
-      <c r="L103" s="1"/>
-      <c r="M103" s="1"/>
-      <c r="N103" s="1"/>
-    </row>
-    <row r="104" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
@@ -3459,15 +2399,10 @@
       <c r="G104" s="1"/>
       <c r="H104" s="1"/>
       <c r="I104" s="1"/>
-      <c r="J104" s="1"/>
-      <c r="K104" s="1"/>
-      <c r="L104" s="1"/>
-      <c r="M104" s="1"/>
-      <c r="N104" s="1"/>
-    </row>
-    <row r="105" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="105" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B105" s="7" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C105" s="6"/>
       <c r="D105" s="6"/>
@@ -3486,23 +2421,8 @@
       <c r="I105" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J105" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="K105" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L105" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="M105" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="N105" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="106" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="106" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
@@ -3511,91 +2431,56 @@
       <c r="G106" s="1"/>
       <c r="H106" s="1"/>
       <c r="I106" s="1"/>
-      <c r="J106" s="1"/>
-      <c r="K106" s="1"/>
-      <c r="L106" s="1"/>
-      <c r="M106" s="1"/>
-      <c r="N106" s="1"/>
-    </row>
-    <row r="107" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="107" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B107" s="8" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C107" s="9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D107" s="9"/>
       <c r="E107" s="9">
-        <v>31234850</v>
+        <v>-22288</v>
       </c>
       <c r="F107" s="9">
-        <v>16207</v>
+        <v>40932812</v>
       </c>
       <c r="G107" s="9">
-        <v>33054</v>
+        <v>140711380</v>
       </c>
       <c r="H107" s="9">
-        <v>36419</v>
+        <v>164433958</v>
       </c>
       <c r="I107" s="9">
-        <v>40000</v>
-      </c>
-      <c r="J107" s="9">
-        <v>40000</v>
-      </c>
-      <c r="K107" s="9">
-        <v>-22288</v>
-      </c>
-      <c r="L107" s="9">
-        <v>40932812</v>
-      </c>
-      <c r="M107" s="9">
-        <v>140711380</v>
-      </c>
-      <c r="N107" s="9">
-        <v>164433958</v>
-      </c>
-    </row>
-    <row r="108" spans="2:14" x14ac:dyDescent="0.3">
+        <v>157454515</v>
+      </c>
+    </row>
+    <row r="108" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B108" s="10" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C108" s="11" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D108" s="11"/>
-      <c r="E108" s="11">
-        <v>356844000000</v>
+      <c r="E108" s="11" t="s">
+        <v>26</v>
       </c>
       <c r="F108" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="G108" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="H108" s="11" t="s">
-        <v>31</v>
+        <v>26</v>
+      </c>
+      <c r="G108" s="11">
+        <v>1139877000000</v>
+      </c>
+      <c r="H108" s="11">
+        <v>90468622</v>
       </c>
       <c r="I108" s="11">
-        <v>756087000000</v>
-      </c>
-      <c r="J108" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="K108" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="L108" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="M108" s="11">
-        <v>1139877000000</v>
-      </c>
-      <c r="N108" s="11">
-        <v>90468674</v>
-      </c>
-    </row>
-    <row r="109" spans="2:14" x14ac:dyDescent="0.3">
+        <v>175504271</v>
+      </c>
+    </row>
+    <row r="109" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
@@ -3604,13 +2489,8 @@
       <c r="G109" s="1"/>
       <c r="H109" s="1"/>
       <c r="I109" s="1"/>
-      <c r="J109" s="1"/>
-      <c r="K109" s="1"/>
-      <c r="L109" s="1"/>
-      <c r="M109" s="1"/>
-      <c r="N109" s="1"/>
-    </row>
-    <row r="110" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="110" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
@@ -3619,13 +2499,8 @@
       <c r="G110" s="1"/>
       <c r="H110" s="1"/>
       <c r="I110" s="1"/>
-      <c r="J110" s="1"/>
-      <c r="K110" s="1"/>
-      <c r="L110" s="1"/>
-      <c r="M110" s="1"/>
-      <c r="N110" s="1"/>
-    </row>
-    <row r="111" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="111" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
@@ -3634,15 +2509,10 @@
       <c r="G111" s="1"/>
       <c r="H111" s="1"/>
       <c r="I111" s="1"/>
-      <c r="J111" s="1"/>
-      <c r="K111" s="1"/>
-      <c r="L111" s="1"/>
-      <c r="M111" s="1"/>
-      <c r="N111" s="1"/>
-    </row>
-    <row r="112" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="112" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B112" s="7" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C112" s="6"/>
       <c r="D112" s="6"/>
@@ -3661,23 +2531,8 @@
       <c r="I112" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J112" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="K112" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L112" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="M112" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="N112" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="113" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="113" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
@@ -3686,91 +2541,56 @@
       <c r="G113" s="1"/>
       <c r="H113" s="1"/>
       <c r="I113" s="1"/>
-      <c r="J113" s="1"/>
-      <c r="K113" s="1"/>
-      <c r="L113" s="1"/>
-      <c r="M113" s="1"/>
-      <c r="N113" s="1"/>
-    </row>
-    <row r="114" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="114" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B114" s="8" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C114" s="9" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D114" s="9"/>
       <c r="E114" s="9" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F114" s="9" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G114" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="H114" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="I114" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="J114" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="K114" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="L114" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="M114" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="N114" s="9">
+        <v>26</v>
+      </c>
+      <c r="H114" s="9">
         <v>158239492</v>
       </c>
-    </row>
-    <row r="115" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="I114" s="9">
+        <v>157263551</v>
+      </c>
+    </row>
+    <row r="115" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B115" s="10" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C115" s="11" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D115" s="11"/>
       <c r="E115" s="11" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F115" s="11" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G115" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="H115" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="I115" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="J115" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="K115" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="L115" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="M115" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="N115" s="11">
-        <v>141068838</v>
-      </c>
-    </row>
-    <row r="116" spans="2:14" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+      <c r="H115" s="11">
+        <v>141068957</v>
+      </c>
+      <c r="I115" s="11">
+        <v>131885848</v>
+      </c>
+    </row>
+    <row r="116" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
@@ -3779,13 +2599,8 @@
       <c r="G116" s="1"/>
       <c r="H116" s="1"/>
       <c r="I116" s="1"/>
-      <c r="J116" s="1"/>
-      <c r="K116" s="1"/>
-      <c r="L116" s="1"/>
-      <c r="M116" s="1"/>
-      <c r="N116" s="1"/>
-    </row>
-    <row r="117" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="117" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
@@ -3794,13 +2609,8 @@
       <c r="G117" s="1"/>
       <c r="H117" s="1"/>
       <c r="I117" s="1"/>
-      <c r="J117" s="1"/>
-      <c r="K117" s="1"/>
-      <c r="L117" s="1"/>
-      <c r="M117" s="1"/>
-      <c r="N117" s="1"/>
-    </row>
-    <row r="118" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="118" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
@@ -3809,15 +2619,10 @@
       <c r="G118" s="1"/>
       <c r="H118" s="1"/>
       <c r="I118" s="1"/>
-      <c r="J118" s="1"/>
-      <c r="K118" s="1"/>
-      <c r="L118" s="1"/>
-      <c r="M118" s="1"/>
-      <c r="N118" s="1"/>
-    </row>
-    <row r="119" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="119" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B119" s="7" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C119" s="6"/>
       <c r="D119" s="6"/>
@@ -3836,23 +2641,8 @@
       <c r="I119" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J119" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="K119" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L119" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="M119" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="N119" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="120" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="120" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
@@ -3861,15 +2651,10 @@
       <c r="G120" s="1"/>
       <c r="H120" s="1"/>
       <c r="I120" s="1"/>
-      <c r="J120" s="1"/>
-      <c r="K120" s="1"/>
-      <c r="L120" s="1"/>
-      <c r="M120" s="1"/>
-      <c r="N120" s="1"/>
-    </row>
-    <row r="121" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="121" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B121" s="8" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C121" s="9"/>
       <c r="D121" s="9"/>
@@ -3888,25 +2673,10 @@
       <c r="I121" s="9">
         <v>0</v>
       </c>
-      <c r="J121" s="9">
-        <v>0</v>
-      </c>
-      <c r="K121" s="9">
-        <v>0</v>
-      </c>
-      <c r="L121" s="9">
-        <v>0</v>
-      </c>
-      <c r="M121" s="9">
-        <v>0</v>
-      </c>
-      <c r="N121" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="122" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B122" s="10" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C122" s="11"/>
       <c r="D122" s="11"/>
@@ -3925,25 +2695,10 @@
       <c r="I122" s="11">
         <v>0</v>
       </c>
-      <c r="J122" s="11">
-        <v>0</v>
-      </c>
-      <c r="K122" s="11">
-        <v>0</v>
-      </c>
-      <c r="L122" s="11">
-        <v>0</v>
-      </c>
-      <c r="M122" s="11">
-        <v>0</v>
-      </c>
-      <c r="N122" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="123" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B123" s="8" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C123" s="9"/>
       <c r="D123" s="9"/>
@@ -3962,25 +2717,10 @@
       <c r="I123" s="9">
         <v>0</v>
       </c>
-      <c r="J123" s="9">
-        <v>0</v>
-      </c>
-      <c r="K123" s="9">
-        <v>0</v>
-      </c>
-      <c r="L123" s="9">
-        <v>0</v>
-      </c>
-      <c r="M123" s="9">
-        <v>0</v>
-      </c>
-      <c r="N123" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="124" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B124" s="10" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C124" s="11"/>
       <c r="D124" s="11"/>
@@ -3999,25 +2739,10 @@
       <c r="I124" s="11">
         <v>0</v>
       </c>
-      <c r="J124" s="11">
-        <v>0</v>
-      </c>
-      <c r="K124" s="11">
-        <v>0</v>
-      </c>
-      <c r="L124" s="11">
-        <v>0</v>
-      </c>
-      <c r="M124" s="11">
-        <v>0</v>
-      </c>
-      <c r="N124" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="125" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B125" s="8" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C125" s="9"/>
       <c r="D125" s="9"/>
@@ -4036,136 +2761,76 @@
       <c r="I125" s="9">
         <v>0</v>
       </c>
-      <c r="J125" s="9">
-        <v>0</v>
-      </c>
-      <c r="K125" s="9">
-        <v>0</v>
-      </c>
-      <c r="L125" s="9">
-        <v>0</v>
-      </c>
-      <c r="M125" s="9">
-        <v>0</v>
-      </c>
-      <c r="N125" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="126" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B126" s="10" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C126" s="11"/>
       <c r="D126" s="11"/>
       <c r="E126" s="11">
-        <v>3471</v>
+        <v>26646</v>
       </c>
       <c r="F126" s="11">
-        <v>10011</v>
+        <v>25136</v>
       </c>
       <c r="G126" s="11">
-        <v>10338</v>
+        <v>6117</v>
       </c>
       <c r="H126" s="11">
-        <v>6043</v>
+        <v>14518</v>
       </c>
       <c r="I126" s="11">
-        <v>8087</v>
-      </c>
-      <c r="J126" s="11">
-        <v>10325</v>
-      </c>
-      <c r="K126" s="11">
-        <v>26646</v>
-      </c>
-      <c r="L126" s="11">
-        <v>25136</v>
-      </c>
-      <c r="M126" s="11">
-        <v>6117</v>
-      </c>
-      <c r="N126" s="11">
-        <v>14518</v>
-      </c>
-    </row>
-    <row r="127" spans="2:14" x14ac:dyDescent="0.3">
+        <v>12962</v>
+      </c>
+    </row>
+    <row r="127" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B127" s="8" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C127" s="9"/>
       <c r="D127" s="9"/>
       <c r="E127" s="9">
-        <v>42725</v>
+        <v>38101</v>
       </c>
       <c r="F127" s="9">
-        <v>41158</v>
+        <v>39265</v>
       </c>
       <c r="G127" s="9">
-        <v>40822</v>
+        <v>40719</v>
       </c>
       <c r="H127" s="9">
-        <v>60090</v>
+        <v>43264</v>
       </c>
       <c r="I127" s="9">
-        <v>47699</v>
-      </c>
-      <c r="J127" s="9">
-        <v>51654</v>
-      </c>
-      <c r="K127" s="9">
-        <v>38101</v>
-      </c>
-      <c r="L127" s="9">
-        <v>39265</v>
-      </c>
-      <c r="M127" s="9">
-        <v>40719</v>
-      </c>
-      <c r="N127" s="9">
-        <v>43264</v>
-      </c>
-    </row>
-    <row r="128" spans="2:14" x14ac:dyDescent="0.3">
+        <v>55756</v>
+      </c>
+    </row>
+    <row r="128" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B128" s="10" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C128" s="11"/>
       <c r="D128" s="11"/>
       <c r="E128" s="11">
-        <v>42568</v>
+        <v>76101</v>
       </c>
       <c r="F128" s="11">
-        <v>42568</v>
+        <v>85089</v>
       </c>
       <c r="G128" s="11">
-        <v>40317</v>
+        <v>147020</v>
       </c>
       <c r="H128" s="11">
-        <v>51423</v>
+        <v>147200</v>
       </c>
       <c r="I128" s="11">
-        <v>67471</v>
-      </c>
-      <c r="J128" s="11">
-        <v>70839</v>
-      </c>
-      <c r="K128" s="11">
-        <v>76101</v>
-      </c>
-      <c r="L128" s="11">
-        <v>85089</v>
-      </c>
-      <c r="M128" s="11">
-        <v>147020</v>
-      </c>
-      <c r="N128" s="11">
-        <v>147200</v>
-      </c>
-    </row>
-    <row r="129" spans="2:14" x14ac:dyDescent="0.3">
+        <v>157624</v>
+      </c>
+    </row>
+    <row r="129" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B129" s="8" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C129" s="9"/>
       <c r="D129" s="9"/>
@@ -4184,155 +2849,110 @@
       <c r="I129" s="9">
         <v>0</v>
       </c>
-      <c r="J129" s="9">
-        <v>0</v>
-      </c>
-      <c r="K129" s="9">
-        <v>0</v>
-      </c>
-      <c r="L129" s="9">
-        <v>0</v>
-      </c>
-      <c r="M129" s="9">
-        <v>0</v>
-      </c>
-      <c r="N129" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="130" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B130" s="10" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C130" s="11"/>
       <c r="D130" s="11"/>
       <c r="E130" s="11">
-        <v>32377</v>
+        <v>45047</v>
       </c>
       <c r="F130" s="11">
-        <v>17011</v>
+        <v>219150</v>
       </c>
       <c r="G130" s="11">
-        <v>66727</v>
+        <v>116279</v>
       </c>
       <c r="H130" s="11">
-        <v>43187</v>
+        <v>122537</v>
       </c>
       <c r="I130" s="11">
-        <v>56032</v>
-      </c>
-      <c r="J130" s="11">
-        <v>87354</v>
-      </c>
-      <c r="K130" s="11">
-        <v>45047</v>
-      </c>
-      <c r="L130" s="11">
-        <v>219150</v>
-      </c>
-      <c r="M130" s="11">
-        <v>116279</v>
-      </c>
-      <c r="N130" s="11">
-        <v>122537</v>
-      </c>
-    </row>
-    <row r="131" spans="2:14" x14ac:dyDescent="0.3">
+        <v>19534</v>
+      </c>
+    </row>
+    <row r="131" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B131" s="14" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C131" s="15"/>
       <c r="D131" s="15"/>
       <c r="E131" s="15">
-        <v>121141</v>
+        <v>185895</v>
       </c>
       <c r="F131" s="15">
-        <v>110748</v>
+        <v>368640</v>
       </c>
       <c r="G131" s="15">
-        <v>158204</v>
+        <v>310135</v>
       </c>
       <c r="H131" s="15">
-        <v>160743</v>
+        <v>327519</v>
       </c>
       <c r="I131" s="15">
-        <v>179289</v>
-      </c>
-      <c r="J131" s="15">
-        <v>220172</v>
-      </c>
-      <c r="K131" s="15">
-        <v>185895</v>
-      </c>
-      <c r="L131" s="15">
-        <v>368640</v>
-      </c>
-      <c r="M131" s="15">
-        <v>310135</v>
-      </c>
-      <c r="N131" s="15">
-        <v>327519</v>
-      </c>
-    </row>
-    <row r="135" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
+        <v>245876</v>
+      </c>
+    </row>
+    <row r="135" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B135" s="7" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C135" s="6"/>
       <c r="D135" s="6"/>
       <c r="E135" s="6"/>
       <c r="F135" s="6"/>
     </row>
-    <row r="137" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B137" s="8" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C137" s="9" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D137" s="9"/>
       <c r="E137" s="9"/>
       <c r="F137" s="9"/>
     </row>
-    <row r="138" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B138" s="10" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C138" s="11" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D138" s="11"/>
       <c r="E138" s="11"/>
       <c r="F138" s="11"/>
     </row>
-    <row r="139" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B139" s="8" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C139" s="9" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D139" s="9"/>
       <c r="E139" s="9"/>
       <c r="F139" s="9"/>
     </row>
-    <row r="140" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B140" s="10" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C140" s="11" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D140" s="11"/>
       <c r="E140" s="11"/>
       <c r="F140" s="11"/>
     </row>
-    <row r="141" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B141" s="8" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C141" s="9" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D141" s="9"/>
       <c r="E141" s="9"/>

--- a/database/industries/ghaza/ghezar/cost/quarterly.xlsx
+++ b/database/industries/ghaza/ghezar/cost/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\ghaza\ghezar\cost\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\ghaza\ghezar\cost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD383D9E-8FB7-40DC-B36D-D9BA3871ADA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60FC6395-87E0-4B2D-90CE-A23D8ACF6A51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="69">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -32,6 +32,21 @@
   </si>
   <si>
     <t>بهای تمام شده</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1399/06</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1399/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1399/12</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1400/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1400/06</t>
   </si>
   <si>
     <t>فصل سوم منتهی به 1400/09</t>
@@ -667,16 +682,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I141"/>
+  <dimension ref="B1:N141"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="9" width="20" customWidth="1"/>
+    <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -685,8 +700,13 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -697,8 +717,13 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -709,8 +734,13 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -719,8 +749,13 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -731,8 +766,13 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -743,8 +783,13 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -753,8 +798,13 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
@@ -775,8 +825,23 @@
       <c r="I8" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -785,98 +850,163 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
+        <v>2413007</v>
+      </c>
+      <c r="F10" s="9">
+        <v>2870968</v>
+      </c>
+      <c r="G10" s="9">
+        <v>1918201</v>
+      </c>
+      <c r="H10" s="9">
+        <v>3121635</v>
+      </c>
+      <c r="I10" s="9">
+        <v>3509404</v>
+      </c>
+      <c r="J10" s="9">
         <v>3720191</v>
       </c>
-      <c r="F10" s="9">
+      <c r="K10" s="9">
         <v>3315611</v>
       </c>
-      <c r="G10" s="9">
+      <c r="L10" s="9">
         <v>6806465</v>
       </c>
-      <c r="H10" s="9">
+      <c r="M10" s="9">
         <v>7850877</v>
       </c>
-      <c r="I10" s="9">
+      <c r="N10" s="9">
         <v>8583386</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
+        <v>61663</v>
+      </c>
+      <c r="F11" s="11">
+        <v>62789</v>
+      </c>
+      <c r="G11" s="11">
+        <v>63151</v>
+      </c>
+      <c r="H11" s="11">
+        <v>90713</v>
+      </c>
+      <c r="I11" s="11">
+        <v>99650</v>
+      </c>
+      <c r="J11" s="11">
         <v>103456</v>
       </c>
-      <c r="F11" s="11">
+      <c r="K11" s="11">
         <v>108576</v>
       </c>
-      <c r="G11" s="11">
+      <c r="L11" s="11">
         <v>132915</v>
       </c>
-      <c r="H11" s="11">
+      <c r="M11" s="11">
         <v>151825</v>
       </c>
-      <c r="I11" s="11">
+      <c r="N11" s="11">
         <v>131159</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
+        <v>110748</v>
+      </c>
+      <c r="F12" s="9">
+        <v>158204</v>
+      </c>
+      <c r="G12" s="9">
+        <v>160743</v>
+      </c>
+      <c r="H12" s="9">
+        <v>179289</v>
+      </c>
+      <c r="I12" s="9">
+        <v>220172</v>
+      </c>
+      <c r="J12" s="9">
         <v>185895</v>
       </c>
-      <c r="F12" s="9">
+      <c r="K12" s="9">
         <v>368640</v>
       </c>
-      <c r="G12" s="9">
+      <c r="L12" s="9">
         <v>310135</v>
       </c>
-      <c r="H12" s="9">
+      <c r="M12" s="9">
         <v>327519</v>
       </c>
-      <c r="I12" s="9">
+      <c r="N12" s="9">
         <v>245876</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13">
+        <v>2585418</v>
+      </c>
+      <c r="F13" s="13">
+        <v>3091961</v>
+      </c>
+      <c r="G13" s="13">
+        <v>2142095</v>
+      </c>
+      <c r="H13" s="13">
+        <v>3391637</v>
+      </c>
+      <c r="I13" s="13">
+        <v>3829226</v>
+      </c>
+      <c r="J13" s="13">
         <v>4009542</v>
       </c>
-      <c r="F13" s="13">
+      <c r="K13" s="13">
         <v>3792827</v>
       </c>
-      <c r="G13" s="13">
+      <c r="L13" s="13">
         <v>7249515</v>
       </c>
-      <c r="H13" s="13">
+      <c r="M13" s="13">
         <v>8330221</v>
       </c>
-      <c r="I13" s="13">
+      <c r="N13" s="13">
         <v>8960421</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
@@ -890,59 +1020,104 @@
         <v>0</v>
       </c>
       <c r="H14" s="9">
+        <v>0</v>
+      </c>
+      <c r="I14" s="9">
+        <v>0</v>
+      </c>
+      <c r="J14" s="9">
+        <v>0</v>
+      </c>
+      <c r="K14" s="9">
+        <v>0</v>
+      </c>
+      <c r="L14" s="9">
+        <v>0</v>
+      </c>
+      <c r="M14" s="9">
         <v>-78718</v>
       </c>
-      <c r="I14" s="9">
+      <c r="N14" s="9">
         <v>78718</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13">
+        <v>2585418</v>
+      </c>
+      <c r="F15" s="13">
+        <v>3091961</v>
+      </c>
+      <c r="G15" s="13">
+        <v>2142095</v>
+      </c>
+      <c r="H15" s="13">
+        <v>3391637</v>
+      </c>
+      <c r="I15" s="13">
+        <v>3829226</v>
+      </c>
+      <c r="J15" s="13">
         <v>4009542</v>
       </c>
-      <c r="F15" s="13">
+      <c r="K15" s="13">
         <v>3792827</v>
       </c>
-      <c r="G15" s="13">
+      <c r="L15" s="13">
         <v>7249515</v>
       </c>
-      <c r="H15" s="13">
+      <c r="M15" s="13">
         <v>8251503</v>
       </c>
-      <c r="I15" s="13">
+      <c r="N15" s="13">
         <v>9039139</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
       <c r="E16" s="9">
-        <v>0</v>
+        <v>-16192</v>
       </c>
       <c r="F16" s="9">
+        <v>16192</v>
+      </c>
+      <c r="G16" s="9">
+        <v>0</v>
+      </c>
+      <c r="H16" s="9">
+        <v>0</v>
+      </c>
+      <c r="I16" s="9">
+        <v>0</v>
+      </c>
+      <c r="J16" s="9">
+        <v>0</v>
+      </c>
+      <c r="K16" s="9">
         <v>-73091</v>
       </c>
-      <c r="G16" s="9">
-        <v>0</v>
-      </c>
-      <c r="H16" s="9">
-        <v>0</v>
-      </c>
-      <c r="I16" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L16" s="9">
+        <v>0</v>
+      </c>
+      <c r="M16" s="9">
+        <v>0</v>
+      </c>
+      <c r="N16" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
@@ -961,32 +1136,62 @@
       <c r="I17" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J17" s="11">
+        <v>0</v>
+      </c>
+      <c r="K17" s="11">
+        <v>0</v>
+      </c>
+      <c r="L17" s="11">
+        <v>0</v>
+      </c>
+      <c r="M17" s="11">
+        <v>0</v>
+      </c>
+      <c r="N17" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="14" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
       <c r="E18" s="15">
+        <v>2569226</v>
+      </c>
+      <c r="F18" s="15">
+        <v>3108153</v>
+      </c>
+      <c r="G18" s="15">
+        <v>2142095</v>
+      </c>
+      <c r="H18" s="15">
+        <v>3391637</v>
+      </c>
+      <c r="I18" s="15">
+        <v>3829226</v>
+      </c>
+      <c r="J18" s="15">
         <v>4009542</v>
       </c>
-      <c r="F18" s="15">
+      <c r="K18" s="15">
         <v>3719736</v>
       </c>
-      <c r="G18" s="15">
+      <c r="L18" s="15">
         <v>7249515</v>
       </c>
-      <c r="H18" s="15">
+      <c r="M18" s="15">
         <v>8251503</v>
       </c>
-      <c r="I18" s="15">
+      <c r="N18" s="15">
         <v>9039139</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
@@ -994,65 +1199,110 @@
         <v>0</v>
       </c>
       <c r="F19" s="11">
+        <v>0</v>
+      </c>
+      <c r="G19" s="11">
+        <v>-59371</v>
+      </c>
+      <c r="H19" s="11">
+        <v>584842</v>
+      </c>
+      <c r="I19" s="11">
+        <v>1</v>
+      </c>
+      <c r="J19" s="11">
+        <v>0</v>
+      </c>
+      <c r="K19" s="11">
         <v>108914</v>
       </c>
-      <c r="G19" s="11">
+      <c r="L19" s="11">
         <v>259260</v>
       </c>
-      <c r="H19" s="11">
+      <c r="M19" s="11">
         <v>724949</v>
       </c>
-      <c r="I19" s="11">
+      <c r="N19" s="11">
         <v>826095</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="8" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9">
+        <v>-277378</v>
+      </c>
+      <c r="F20" s="9">
+        <v>-4186</v>
+      </c>
+      <c r="G20" s="9">
+        <v>88798</v>
+      </c>
+      <c r="H20" s="9">
+        <v>-556351</v>
+      </c>
+      <c r="I20" s="9">
+        <v>345226</v>
+      </c>
+      <c r="J20" s="9">
         <v>-108914</v>
       </c>
-      <c r="F20" s="9">
+      <c r="K20" s="9">
         <v>-260004</v>
       </c>
-      <c r="G20" s="9">
+      <c r="L20" s="9">
         <v>-724949</v>
       </c>
-      <c r="H20" s="9">
+      <c r="M20" s="9">
         <v>-826095</v>
       </c>
-      <c r="I20" s="9">
+      <c r="N20" s="9">
         <v>-625746</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="12" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
       <c r="E21" s="13">
+        <v>2291848</v>
+      </c>
+      <c r="F21" s="13">
+        <v>3103967</v>
+      </c>
+      <c r="G21" s="13">
+        <v>2171522</v>
+      </c>
+      <c r="H21" s="13">
+        <v>3420128</v>
+      </c>
+      <c r="I21" s="13">
+        <v>4174453</v>
+      </c>
+      <c r="J21" s="13">
         <v>3900628</v>
       </c>
-      <c r="F21" s="13">
+      <c r="K21" s="13">
         <v>3777938</v>
       </c>
-      <c r="G21" s="13">
+      <c r="L21" s="13">
         <v>6783826</v>
       </c>
-      <c r="H21" s="13">
+      <c r="M21" s="13">
         <v>8151101</v>
       </c>
-      <c r="I21" s="13">
+      <c r="N21" s="13">
         <v>9239488</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="8" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
@@ -1063,38 +1313,68 @@
         <v>0</v>
       </c>
       <c r="G22" s="9">
-        <v>0</v>
+        <v>961258</v>
       </c>
       <c r="H22" s="9">
+        <v>0</v>
+      </c>
+      <c r="I22" s="9">
+        <v>0</v>
+      </c>
+      <c r="J22" s="9">
+        <v>0</v>
+      </c>
+      <c r="K22" s="9">
+        <v>0</v>
+      </c>
+      <c r="L22" s="9">
+        <v>0</v>
+      </c>
+      <c r="M22" s="9">
         <v>-25873</v>
       </c>
-      <c r="I22" s="9">
+      <c r="N22" s="9">
         <v>55114</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="12" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
       <c r="E23" s="13">
+        <v>2291848</v>
+      </c>
+      <c r="F23" s="13">
+        <v>3103967</v>
+      </c>
+      <c r="G23" s="13">
+        <v>3132780</v>
+      </c>
+      <c r="H23" s="13">
+        <v>3420128</v>
+      </c>
+      <c r="I23" s="13">
+        <v>4174453</v>
+      </c>
+      <c r="J23" s="13">
         <v>3900628</v>
       </c>
-      <c r="F23" s="13">
+      <c r="K23" s="13">
         <v>3777938</v>
       </c>
-      <c r="G23" s="13">
+      <c r="L23" s="13">
         <v>6783826</v>
       </c>
-      <c r="H23" s="13">
+      <c r="M23" s="13">
         <v>8125228</v>
       </c>
-      <c r="I23" s="13">
+      <c r="N23" s="13">
         <v>9294602</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1103,8 +1383,13 @@
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1113,8 +1398,13 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1123,10 +1413,15 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
-    </row>
-    <row r="27" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+    </row>
+    <row r="27" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B27" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
@@ -1145,8 +1440,23 @@
       <c r="I27" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J27" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K27" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L27" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M27" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N27" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1155,44 +1465,64 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D29" s="9"/>
       <c r="E29" s="9">
-        <v>0</v>
-      </c>
-      <c r="F29" s="9" t="s">
-        <v>26</v>
+        <v>54464551</v>
+      </c>
+      <c r="F29" s="9">
+        <v>627863</v>
       </c>
       <c r="G29" s="9">
-        <v>0</v>
+        <v>1101988</v>
       </c>
       <c r="H29" s="9">
         <v>0</v>
       </c>
       <c r="I29" s="9">
+        <v>0</v>
+      </c>
+      <c r="J29" s="9">
+        <v>0</v>
+      </c>
+      <c r="K29" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L29" s="9">
+        <v>0</v>
+      </c>
+      <c r="M29" s="9">
+        <v>0</v>
+      </c>
+      <c r="N29" s="9">
         <v>1023</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D30" s="11"/>
       <c r="E30" s="11">
         <v>0</v>
       </c>
-      <c r="F30" s="11" t="s">
-        <v>26</v>
+      <c r="F30" s="11">
+        <v>0</v>
       </c>
       <c r="G30" s="11">
         <v>0</v>
@@ -1201,32 +1531,62 @@
         <v>0</v>
       </c>
       <c r="I30" s="11">
+        <v>0</v>
+      </c>
+      <c r="J30" s="11">
+        <v>0</v>
+      </c>
+      <c r="K30" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L30" s="11">
+        <v>0</v>
+      </c>
+      <c r="M30" s="11">
+        <v>0</v>
+      </c>
+      <c r="N30" s="11">
         <v>8411</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" s="14" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C31" s="15"/>
       <c r="D31" s="15"/>
       <c r="E31" s="15">
-        <v>0</v>
+        <v>54464551</v>
       </c>
       <c r="F31" s="15">
-        <v>0</v>
+        <v>627863</v>
       </c>
       <c r="G31" s="15">
-        <v>0</v>
+        <v>1101988</v>
       </c>
       <c r="H31" s="15">
         <v>0</v>
       </c>
       <c r="I31" s="15">
+        <v>0</v>
+      </c>
+      <c r="J31" s="15">
+        <v>0</v>
+      </c>
+      <c r="K31" s="15">
+        <v>0</v>
+      </c>
+      <c r="L31" s="15">
+        <v>0</v>
+      </c>
+      <c r="M31" s="15">
+        <v>0</v>
+      </c>
+      <c r="N31" s="15">
         <v>9434</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -1235,8 +1595,13 @@
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -1245,8 +1610,13 @@
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -1255,10 +1625,15 @@
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
-    </row>
-    <row r="35" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+    </row>
+    <row r="35" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B35" s="7" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
@@ -1277,8 +1652,23 @@
       <c r="I35" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J35" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K35" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L35" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M35" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N35" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -1287,37 +1677,57 @@
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B37" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D37" s="9"/>
       <c r="E37" s="9">
+        <v>58394455</v>
+      </c>
+      <c r="F37" s="9">
+        <v>65276344</v>
+      </c>
+      <c r="G37" s="9">
+        <v>53625797</v>
+      </c>
+      <c r="H37" s="9">
+        <v>59138700</v>
+      </c>
+      <c r="I37" s="9">
+        <v>61726097</v>
+      </c>
+      <c r="J37" s="9">
         <v>-120680493</v>
       </c>
-      <c r="F37" s="9">
+      <c r="K37" s="9">
         <v>55858</v>
       </c>
-      <c r="G37" s="9">
+      <c r="L37" s="9">
         <v>40271</v>
       </c>
-      <c r="H37" s="9">
+      <c r="M37" s="9">
         <v>38151</v>
       </c>
-      <c r="I37" s="9">
+      <c r="N37" s="9">
         <v>44512</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B38" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D38" s="11"/>
       <c r="E38" s="11">
@@ -1327,38 +1737,68 @@
         <v>0</v>
       </c>
       <c r="G38" s="11">
+        <v>0</v>
+      </c>
+      <c r="H38" s="11">
         <v>1</v>
       </c>
-      <c r="H38" s="11">
+      <c r="I38" s="11">
+        <v>0</v>
+      </c>
+      <c r="J38" s="11">
+        <v>0</v>
+      </c>
+      <c r="K38" s="11">
+        <v>0</v>
+      </c>
+      <c r="L38" s="11">
+        <v>1</v>
+      </c>
+      <c r="M38" s="11">
         <v>19062</v>
       </c>
-      <c r="I38" s="11">
+      <c r="N38" s="11">
         <v>9338</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B39" s="14" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C39" s="15"/>
       <c r="D39" s="15"/>
       <c r="E39" s="15">
+        <v>58394455</v>
+      </c>
+      <c r="F39" s="15">
+        <v>65276344</v>
+      </c>
+      <c r="G39" s="15">
+        <v>53625797</v>
+      </c>
+      <c r="H39" s="15">
+        <v>59138701</v>
+      </c>
+      <c r="I39" s="15">
+        <v>61726097</v>
+      </c>
+      <c r="J39" s="15">
         <v>-120680493</v>
       </c>
-      <c r="F39" s="15">
+      <c r="K39" s="15">
         <v>55858</v>
       </c>
-      <c r="G39" s="15">
+      <c r="L39" s="15">
         <v>40272</v>
       </c>
-      <c r="H39" s="15">
+      <c r="M39" s="15">
         <v>57213</v>
       </c>
-      <c r="I39" s="15">
+      <c r="N39" s="15">
         <v>53850</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -1367,8 +1807,13 @@
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -1377,8 +1822,13 @@
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -1387,10 +1837,15 @@
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
-    </row>
-    <row r="43" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+    </row>
+    <row r="43" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B43" s="7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
@@ -1409,8 +1864,23 @@
       <c r="I43" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J43" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K43" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L43" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M43" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N43" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -1419,37 +1889,57 @@
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B45" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D45" s="9"/>
       <c r="E45" s="9">
+        <v>112231143</v>
+      </c>
+      <c r="F45" s="9">
+        <v>64802219</v>
+      </c>
+      <c r="G45" s="9">
+        <v>54727785</v>
+      </c>
+      <c r="H45" s="9">
+        <v>59138700</v>
+      </c>
+      <c r="I45" s="9">
+        <v>61726097</v>
+      </c>
+      <c r="J45" s="9">
         <v>-120680493</v>
       </c>
-      <c r="F45" s="9">
+      <c r="K45" s="9">
         <v>55858</v>
       </c>
-      <c r="G45" s="9">
+      <c r="L45" s="9">
         <v>40271</v>
       </c>
-      <c r="H45" s="9">
+      <c r="M45" s="9">
         <v>37128</v>
       </c>
-      <c r="I45" s="9">
+      <c r="N45" s="9">
         <v>44465</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B46" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D46" s="11"/>
       <c r="E46" s="11">
@@ -1459,38 +1949,68 @@
         <v>0</v>
       </c>
       <c r="G46" s="11">
+        <v>0</v>
+      </c>
+      <c r="H46" s="11">
         <v>1</v>
       </c>
-      <c r="H46" s="11">
+      <c r="I46" s="11">
+        <v>0</v>
+      </c>
+      <c r="J46" s="11">
+        <v>0</v>
+      </c>
+      <c r="K46" s="11">
+        <v>0</v>
+      </c>
+      <c r="L46" s="11">
+        <v>1</v>
+      </c>
+      <c r="M46" s="11">
         <v>19297</v>
       </c>
-      <c r="I46" s="11">
+      <c r="N46" s="11">
         <v>9015</v>
       </c>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B47" s="14" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C47" s="15"/>
       <c r="D47" s="15"/>
       <c r="E47" s="15">
+        <v>112231143</v>
+      </c>
+      <c r="F47" s="15">
+        <v>64802219</v>
+      </c>
+      <c r="G47" s="15">
+        <v>54727785</v>
+      </c>
+      <c r="H47" s="15">
+        <v>59138701</v>
+      </c>
+      <c r="I47" s="15">
+        <v>61726097</v>
+      </c>
+      <c r="J47" s="15">
         <v>-120680493</v>
       </c>
-      <c r="F47" s="15">
+      <c r="K47" s="15">
         <v>55858</v>
       </c>
-      <c r="G47" s="15">
+      <c r="L47" s="15">
         <v>40272</v>
       </c>
-      <c r="H47" s="15">
+      <c r="M47" s="15">
         <v>56425</v>
       </c>
-      <c r="I47" s="15">
+      <c r="N47" s="15">
         <v>53480</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -1499,8 +2019,13 @@
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -1509,8 +2034,13 @@
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -1519,10 +2049,15 @@
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
-    </row>
-    <row r="51" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+      <c r="M50" s="1"/>
+      <c r="N50" s="1"/>
+    </row>
+    <row r="51" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B51" s="7" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C51" s="6"/>
       <c r="D51" s="6"/>
@@ -1541,8 +2076,23 @@
       <c r="I51" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J51" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K51" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L51" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M51" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N51" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -1551,37 +2101,57 @@
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+      <c r="M52" s="1"/>
+      <c r="N52" s="1"/>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B53" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D53" s="9"/>
       <c r="E53" s="9">
-        <v>0</v>
+        <v>627863</v>
       </c>
       <c r="F53" s="9">
-        <v>0</v>
+        <v>1101988</v>
       </c>
       <c r="G53" s="9">
         <v>0</v>
       </c>
       <c r="H53" s="9">
+        <v>0</v>
+      </c>
+      <c r="I53" s="9">
+        <v>0</v>
+      </c>
+      <c r="J53" s="9">
+        <v>0</v>
+      </c>
+      <c r="K53" s="9">
+        <v>0</v>
+      </c>
+      <c r="L53" s="9">
+        <v>0</v>
+      </c>
+      <c r="M53" s="9">
         <v>1023</v>
       </c>
-      <c r="I53" s="9">
+      <c r="N53" s="9">
         <v>1070</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B54" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D54" s="11"/>
       <c r="E54" s="11">
@@ -1594,35 +2164,65 @@
         <v>0</v>
       </c>
       <c r="H54" s="11">
+        <v>0</v>
+      </c>
+      <c r="I54" s="11">
+        <v>0</v>
+      </c>
+      <c r="J54" s="11">
+        <v>0</v>
+      </c>
+      <c r="K54" s="11">
+        <v>0</v>
+      </c>
+      <c r="L54" s="11">
+        <v>0</v>
+      </c>
+      <c r="M54" s="11">
         <v>8411</v>
       </c>
-      <c r="I54" s="11">
+      <c r="N54" s="11">
         <v>8734</v>
       </c>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B55" s="14" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C55" s="15"/>
       <c r="D55" s="15"/>
       <c r="E55" s="15">
-        <v>0</v>
+        <v>627863</v>
       </c>
       <c r="F55" s="15">
-        <v>0</v>
+        <v>1101988</v>
       </c>
       <c r="G55" s="15">
         <v>0</v>
       </c>
       <c r="H55" s="15">
+        <v>0</v>
+      </c>
+      <c r="I55" s="15">
+        <v>0</v>
+      </c>
+      <c r="J55" s="15">
+        <v>0</v>
+      </c>
+      <c r="K55" s="15">
+        <v>0</v>
+      </c>
+      <c r="L55" s="15">
+        <v>0</v>
+      </c>
+      <c r="M55" s="15">
         <v>9434</v>
       </c>
-      <c r="I55" s="15">
+      <c r="N55" s="15">
         <v>9804</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -1631,8 +2231,13 @@
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J56" s="1"/>
+      <c r="K56" s="1"/>
+      <c r="L56" s="1"/>
+      <c r="M56" s="1"/>
+      <c r="N56" s="1"/>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -1641,8 +2246,13 @@
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J57" s="1"/>
+      <c r="K57" s="1"/>
+      <c r="L57" s="1"/>
+      <c r="M57" s="1"/>
+      <c r="N57" s="1"/>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -1651,10 +2261,15 @@
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
-    </row>
-    <row r="59" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J58" s="1"/>
+      <c r="K58" s="1"/>
+      <c r="L58" s="1"/>
+      <c r="M58" s="1"/>
+      <c r="N58" s="1"/>
+    </row>
+    <row r="59" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B59" s="7" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C59" s="6"/>
       <c r="D59" s="6"/>
@@ -1673,8 +2288,23 @@
       <c r="I59" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J59" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K59" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L59" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M59" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N59" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -1683,44 +2313,64 @@
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J60" s="1"/>
+      <c r="K60" s="1"/>
+      <c r="L60" s="1"/>
+      <c r="M60" s="1"/>
+      <c r="N60" s="1"/>
+    </row>
+    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B61" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D61" s="9"/>
       <c r="E61" s="9">
-        <v>0</v>
-      </c>
-      <c r="F61" s="9" t="s">
-        <v>26</v>
+        <v>3000</v>
+      </c>
+      <c r="F61" s="9">
+        <v>19676</v>
       </c>
       <c r="G61" s="9">
-        <v>0</v>
+        <v>37314</v>
       </c>
       <c r="H61" s="9">
         <v>0</v>
       </c>
       <c r="I61" s="9">
+        <v>0</v>
+      </c>
+      <c r="J61" s="9">
+        <v>0</v>
+      </c>
+      <c r="K61" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L61" s="9">
+        <v>0</v>
+      </c>
+      <c r="M61" s="9">
+        <v>0</v>
+      </c>
+      <c r="N61" s="9">
         <v>161879</v>
       </c>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B62" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D62" s="11"/>
       <c r="E62" s="11">
         <v>0</v>
       </c>
-      <c r="F62" s="11" t="s">
-        <v>26</v>
+      <c r="F62" s="11">
+        <v>0</v>
       </c>
       <c r="G62" s="11">
         <v>0</v>
@@ -1729,32 +2379,62 @@
         <v>0</v>
       </c>
       <c r="I62" s="11">
+        <v>0</v>
+      </c>
+      <c r="J62" s="11">
+        <v>0</v>
+      </c>
+      <c r="K62" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L62" s="11">
+        <v>0</v>
+      </c>
+      <c r="M62" s="11">
+        <v>0</v>
+      </c>
+      <c r="N62" s="11">
         <v>1186531</v>
       </c>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B63" s="14" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C63" s="15"/>
       <c r="D63" s="15"/>
       <c r="E63" s="15">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="F63" s="15">
-        <v>0</v>
+        <v>19676</v>
       </c>
       <c r="G63" s="15">
-        <v>0</v>
+        <v>37314</v>
       </c>
       <c r="H63" s="15">
         <v>0</v>
       </c>
       <c r="I63" s="15">
+        <v>0</v>
+      </c>
+      <c r="J63" s="15">
+        <v>0</v>
+      </c>
+      <c r="K63" s="15">
+        <v>0</v>
+      </c>
+      <c r="L63" s="15">
+        <v>0</v>
+      </c>
+      <c r="M63" s="15">
+        <v>0</v>
+      </c>
+      <c r="N63" s="15">
         <v>1348410</v>
       </c>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -1763,8 +2443,13 @@
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J64" s="1"/>
+      <c r="K64" s="1"/>
+      <c r="L64" s="1"/>
+      <c r="M64" s="1"/>
+      <c r="N64" s="1"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -1773,8 +2458,13 @@
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
-    </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J65" s="1"/>
+      <c r="K65" s="1"/>
+      <c r="L65" s="1"/>
+      <c r="M65" s="1"/>
+      <c r="N65" s="1"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -1783,10 +2473,15 @@
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
-    </row>
-    <row r="67" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J66" s="1"/>
+      <c r="K66" s="1"/>
+      <c r="L66" s="1"/>
+      <c r="M66" s="1"/>
+      <c r="N66" s="1"/>
+    </row>
+    <row r="67" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B67" s="7" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C67" s="6"/>
       <c r="D67" s="6"/>
@@ -1805,8 +2500,23 @@
       <c r="I67" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J67" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K67" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L67" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M67" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N67" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -1815,78 +2525,128 @@
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
-    </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J68" s="1"/>
+      <c r="K68" s="1"/>
+      <c r="L68" s="1"/>
+      <c r="M68" s="1"/>
+      <c r="N68" s="1"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B69" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D69" s="9"/>
       <c r="E69" s="9">
+        <v>1835641</v>
+      </c>
+      <c r="F69" s="9">
+        <v>2159611</v>
+      </c>
+      <c r="G69" s="9">
+        <v>1955823</v>
+      </c>
+      <c r="H69" s="9">
+        <v>2365548</v>
+      </c>
+      <c r="I69" s="9">
+        <v>2469044</v>
+      </c>
+      <c r="J69" s="9">
         <v>2689694</v>
       </c>
-      <c r="F69" s="9">
+      <c r="K69" s="9">
         <v>2286425</v>
       </c>
-      <c r="G69" s="9">
+      <c r="L69" s="9">
         <v>5666588</v>
       </c>
-      <c r="H69" s="9">
+      <c r="M69" s="9">
         <v>6266983</v>
       </c>
-      <c r="I69" s="9">
+      <c r="N69" s="9">
         <v>7007608</v>
       </c>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B70" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C70" s="11" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D70" s="11"/>
       <c r="E70" s="11">
+        <v>594042</v>
+      </c>
+      <c r="F70" s="11">
+        <v>728995</v>
+      </c>
+      <c r="G70" s="11">
+        <v>886322</v>
+      </c>
+      <c r="H70" s="11">
+        <v>756087</v>
+      </c>
+      <c r="I70" s="11">
+        <v>1040360</v>
+      </c>
+      <c r="J70" s="11">
         <v>1030497</v>
       </c>
-      <c r="F70" s="11">
+      <c r="K70" s="11">
         <v>-80416</v>
       </c>
-      <c r="G70" s="11">
+      <c r="L70" s="11">
         <v>1139877</v>
       </c>
-      <c r="H70" s="11">
+      <c r="M70" s="11">
         <v>2261526</v>
       </c>
-      <c r="I70" s="11">
+      <c r="N70" s="11">
         <v>1547531</v>
       </c>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B71" s="14" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C71" s="15"/>
       <c r="D71" s="15"/>
       <c r="E71" s="15">
+        <v>2429683</v>
+      </c>
+      <c r="F71" s="15">
+        <v>2888606</v>
+      </c>
+      <c r="G71" s="15">
+        <v>2842145</v>
+      </c>
+      <c r="H71" s="15">
+        <v>3121635</v>
+      </c>
+      <c r="I71" s="15">
+        <v>3509404</v>
+      </c>
+      <c r="J71" s="15">
         <v>3720191</v>
       </c>
-      <c r="F71" s="15">
+      <c r="K71" s="15">
         <v>2206009</v>
       </c>
-      <c r="G71" s="15">
+      <c r="L71" s="15">
         <v>6806465</v>
       </c>
-      <c r="H71" s="15">
+      <c r="M71" s="15">
         <v>8528509</v>
       </c>
-      <c r="I71" s="15">
+      <c r="N71" s="15">
         <v>8555139</v>
       </c>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -1895,8 +2655,13 @@
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
-    </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J72" s="1"/>
+      <c r="K72" s="1"/>
+      <c r="L72" s="1"/>
+      <c r="M72" s="1"/>
+      <c r="N72" s="1"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -1905,8 +2670,13 @@
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
-    </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J73" s="1"/>
+      <c r="K73" s="1"/>
+      <c r="L73" s="1"/>
+      <c r="M73" s="1"/>
+      <c r="N73" s="1"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -1915,10 +2685,15 @@
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
-    </row>
-    <row r="75" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J74" s="1"/>
+      <c r="K74" s="1"/>
+      <c r="L74" s="1"/>
+      <c r="M74" s="1"/>
+      <c r="N74" s="1"/>
+    </row>
+    <row r="75" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B75" s="7" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C75" s="6"/>
       <c r="D75" s="6"/>
@@ -1937,8 +2712,23 @@
       <c r="I75" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J75" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K75" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L75" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M75" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N75" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -1947,78 +2737,128 @@
       <c r="G76" s="1"/>
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
-    </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J76" s="1"/>
+      <c r="K76" s="1"/>
+      <c r="L76" s="1"/>
+      <c r="M76" s="1"/>
+      <c r="N76" s="1"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B77" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D77" s="9"/>
       <c r="E77" s="9">
+        <v>1818965</v>
+      </c>
+      <c r="F77" s="9">
+        <v>2141973</v>
+      </c>
+      <c r="G77" s="9">
+        <v>1993137</v>
+      </c>
+      <c r="H77" s="9">
+        <v>2365548</v>
+      </c>
+      <c r="I77" s="9">
+        <v>2469044</v>
+      </c>
+      <c r="J77" s="9">
         <v>2689694</v>
       </c>
-      <c r="F77" s="9">
+      <c r="K77" s="9">
         <v>2286425</v>
       </c>
-      <c r="G77" s="9">
+      <c r="L77" s="9">
         <v>5666588</v>
       </c>
-      <c r="H77" s="9">
+      <c r="M77" s="9">
         <v>6105104</v>
       </c>
-      <c r="I77" s="9">
+      <c r="N77" s="9">
         <v>7001215</v>
       </c>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B78" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C78" s="11" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D78" s="11"/>
       <c r="E78" s="11">
+        <v>594042</v>
+      </c>
+      <c r="F78" s="11">
+        <v>728995</v>
+      </c>
+      <c r="G78" s="11">
+        <v>886322</v>
+      </c>
+      <c r="H78" s="11">
+        <v>756087</v>
+      </c>
+      <c r="I78" s="11">
+        <v>1040360</v>
+      </c>
+      <c r="J78" s="11">
         <v>1030497</v>
       </c>
-      <c r="F78" s="11">
+      <c r="K78" s="11">
         <v>-80416</v>
       </c>
-      <c r="G78" s="11">
+      <c r="L78" s="11">
         <v>1139877</v>
       </c>
-      <c r="H78" s="11">
+      <c r="M78" s="11">
         <v>1745773</v>
       </c>
-      <c r="I78" s="11">
+      <c r="N78" s="11">
         <v>1582171</v>
       </c>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B79" s="14" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C79" s="15"/>
       <c r="D79" s="15"/>
       <c r="E79" s="15">
+        <v>2413007</v>
+      </c>
+      <c r="F79" s="15">
+        <v>2870968</v>
+      </c>
+      <c r="G79" s="15">
+        <v>2879459</v>
+      </c>
+      <c r="H79" s="15">
+        <v>3121635</v>
+      </c>
+      <c r="I79" s="15">
+        <v>3509404</v>
+      </c>
+      <c r="J79" s="15">
         <v>3720191</v>
       </c>
-      <c r="F79" s="15">
+      <c r="K79" s="15">
         <v>2206009</v>
       </c>
-      <c r="G79" s="15">
+      <c r="L79" s="15">
         <v>6806465</v>
       </c>
-      <c r="H79" s="15">
+      <c r="M79" s="15">
         <v>7850877</v>
       </c>
-      <c r="I79" s="15">
+      <c r="N79" s="15">
         <v>8583386</v>
       </c>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -2027,8 +2867,13 @@
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
-    </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J80" s="1"/>
+      <c r="K80" s="1"/>
+      <c r="L80" s="1"/>
+      <c r="M80" s="1"/>
+      <c r="N80" s="1"/>
+    </row>
+    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -2037,8 +2882,13 @@
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
-    </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J81" s="1"/>
+      <c r="K81" s="1"/>
+      <c r="L81" s="1"/>
+      <c r="M81" s="1"/>
+      <c r="N81" s="1"/>
+    </row>
+    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
@@ -2047,10 +2897,15 @@
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
-    </row>
-    <row r="83" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J82" s="1"/>
+      <c r="K82" s="1"/>
+      <c r="L82" s="1"/>
+      <c r="M82" s="1"/>
+      <c r="N82" s="1"/>
+    </row>
+    <row r="83" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B83" s="7" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C83" s="6"/>
       <c r="D83" s="6"/>
@@ -2069,8 +2924,23 @@
       <c r="I83" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J83" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K83" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L83" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M83" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N83" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
@@ -2079,37 +2949,57 @@
       <c r="G84" s="1"/>
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
-    </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J84" s="1"/>
+      <c r="K84" s="1"/>
+      <c r="L84" s="1"/>
+      <c r="M84" s="1"/>
+      <c r="N84" s="1"/>
+    </row>
+    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B85" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D85" s="9"/>
       <c r="E85" s="9">
-        <v>0</v>
+        <v>19676</v>
       </c>
       <c r="F85" s="9">
-        <v>0</v>
+        <v>37314</v>
       </c>
       <c r="G85" s="9">
         <v>0</v>
       </c>
       <c r="H85" s="9">
+        <v>0</v>
+      </c>
+      <c r="I85" s="9">
+        <v>0</v>
+      </c>
+      <c r="J85" s="9">
+        <v>0</v>
+      </c>
+      <c r="K85" s="9">
+        <v>0</v>
+      </c>
+      <c r="L85" s="9">
+        <v>0</v>
+      </c>
+      <c r="M85" s="9">
         <v>161879</v>
       </c>
-      <c r="I85" s="9">
+      <c r="N85" s="9">
         <v>168272</v>
       </c>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B86" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C86" s="11" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D86" s="11"/>
       <c r="E86" s="11">
@@ -2122,35 +3012,65 @@
         <v>0</v>
       </c>
       <c r="H86" s="11">
+        <v>0</v>
+      </c>
+      <c r="I86" s="11">
+        <v>0</v>
+      </c>
+      <c r="J86" s="11">
+        <v>0</v>
+      </c>
+      <c r="K86" s="11">
+        <v>0</v>
+      </c>
+      <c r="L86" s="11">
+        <v>0</v>
+      </c>
+      <c r="M86" s="11">
         <v>1186531</v>
       </c>
-      <c r="I86" s="11">
+      <c r="N86" s="11">
         <v>1151891</v>
       </c>
     </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B87" s="14" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C87" s="15"/>
       <c r="D87" s="15"/>
       <c r="E87" s="15">
-        <v>0</v>
+        <v>19676</v>
       </c>
       <c r="F87" s="15">
-        <v>0</v>
+        <v>37314</v>
       </c>
       <c r="G87" s="15">
         <v>0</v>
       </c>
       <c r="H87" s="15">
+        <v>0</v>
+      </c>
+      <c r="I87" s="15">
+        <v>0</v>
+      </c>
+      <c r="J87" s="15">
+        <v>0</v>
+      </c>
+      <c r="K87" s="15">
+        <v>0</v>
+      </c>
+      <c r="L87" s="15">
+        <v>0</v>
+      </c>
+      <c r="M87" s="15">
         <v>1348410</v>
       </c>
-      <c r="I87" s="15">
+      <c r="N87" s="15">
         <v>1320163</v>
       </c>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -2159,8 +3079,13 @@
       <c r="G88" s="1"/>
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
-    </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J88" s="1"/>
+      <c r="K88" s="1"/>
+      <c r="L88" s="1"/>
+      <c r="M88" s="1"/>
+      <c r="N88" s="1"/>
+    </row>
+    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
@@ -2169,8 +3094,13 @@
       <c r="G89" s="1"/>
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
-    </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J89" s="1"/>
+      <c r="K89" s="1"/>
+      <c r="L89" s="1"/>
+      <c r="M89" s="1"/>
+      <c r="N89" s="1"/>
+    </row>
+    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -2179,10 +3109,15 @@
       <c r="G90" s="1"/>
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
-    </row>
-    <row r="91" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J90" s="1"/>
+      <c r="K90" s="1"/>
+      <c r="L90" s="1"/>
+      <c r="M90" s="1"/>
+      <c r="N90" s="1"/>
+    </row>
+    <row r="91" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B91" s="7" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C91" s="6"/>
       <c r="D91" s="6"/>
@@ -2201,8 +3136,23 @@
       <c r="I91" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J91" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K91" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L91" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M91" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N91" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
@@ -2211,56 +3161,91 @@
       <c r="G92" s="1"/>
       <c r="H92" s="1"/>
       <c r="I92" s="1"/>
-    </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J92" s="1"/>
+      <c r="K92" s="1"/>
+      <c r="L92" s="1"/>
+      <c r="M92" s="1"/>
+      <c r="N92" s="1"/>
+    </row>
+    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B93" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C93" s="9" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D93" s="9"/>
-      <c r="E93" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F93" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G93" s="9" t="s">
-        <v>26</v>
+      <c r="E93" s="9">
+        <v>55</v>
+      </c>
+      <c r="F93" s="9">
+        <v>31338</v>
+      </c>
+      <c r="G93" s="9">
+        <v>33861</v>
       </c>
       <c r="H93" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I93" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J93" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K93" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L93" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M93" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N93" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B94" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C94" s="11" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D94" s="11"/>
       <c r="E94" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F94" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G94" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H94" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="I94" s="11">
+        <v>31</v>
+      </c>
+      <c r="I94" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="J94" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K94" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L94" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M94" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N94" s="11">
         <v>141068957</v>
       </c>
     </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
@@ -2269,8 +3254,13 @@
       <c r="G95" s="1"/>
       <c r="H95" s="1"/>
       <c r="I95" s="1"/>
-    </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J95" s="1"/>
+      <c r="K95" s="1"/>
+      <c r="L95" s="1"/>
+      <c r="M95" s="1"/>
+      <c r="N95" s="1"/>
+    </row>
+    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
@@ -2279,8 +3269,13 @@
       <c r="G96" s="1"/>
       <c r="H96" s="1"/>
       <c r="I96" s="1"/>
-    </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J96" s="1"/>
+      <c r="K96" s="1"/>
+      <c r="L96" s="1"/>
+      <c r="M96" s="1"/>
+      <c r="N96" s="1"/>
+    </row>
+    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
@@ -2289,10 +3284,15 @@
       <c r="G97" s="1"/>
       <c r="H97" s="1"/>
       <c r="I97" s="1"/>
-    </row>
-    <row r="98" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J97" s="1"/>
+      <c r="K97" s="1"/>
+      <c r="L97" s="1"/>
+      <c r="M97" s="1"/>
+      <c r="N97" s="1"/>
+    </row>
+    <row r="98" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B98" s="7" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C98" s="6"/>
       <c r="D98" s="6"/>
@@ -2311,8 +3311,23 @@
       <c r="I98" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J98" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K98" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L98" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M98" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N98" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
@@ -2321,56 +3336,91 @@
       <c r="G99" s="1"/>
       <c r="H99" s="1"/>
       <c r="I99" s="1"/>
-    </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J99" s="1"/>
+      <c r="K99" s="1"/>
+      <c r="L99" s="1"/>
+      <c r="M99" s="1"/>
+      <c r="N99" s="1"/>
+    </row>
+    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B100" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C100" s="9" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D100" s="9"/>
       <c r="E100" s="9">
+        <v>31435</v>
+      </c>
+      <c r="F100" s="9">
+        <v>33084</v>
+      </c>
+      <c r="G100" s="9">
+        <v>36472</v>
+      </c>
+      <c r="H100" s="9">
+        <v>40000</v>
+      </c>
+      <c r="I100" s="9">
+        <v>40000</v>
+      </c>
+      <c r="J100" s="9">
         <v>-22288</v>
       </c>
-      <c r="F100" s="9">
+      <c r="K100" s="9">
         <v>40932812</v>
       </c>
-      <c r="G100" s="9">
+      <c r="L100" s="9">
         <v>140711380</v>
       </c>
-      <c r="H100" s="9">
+      <c r="M100" s="9">
         <v>164267857</v>
       </c>
-      <c r="I100" s="9">
+      <c r="N100" s="9">
         <v>157431884</v>
       </c>
     </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B101" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C101" s="11" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D101" s="11"/>
       <c r="E101" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F101" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G101" s="11">
+        <v>31</v>
+      </c>
+      <c r="G101" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H101" s="11">
+        <v>756087000000</v>
+      </c>
+      <c r="I101" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="J101" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K101" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L101" s="11">
         <v>1139877000000</v>
       </c>
-      <c r="H101" s="11">
+      <c r="M101" s="11">
         <v>118640541</v>
       </c>
-      <c r="I101" s="11">
+      <c r="N101" s="11">
         <v>165724031</v>
       </c>
     </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
@@ -2379,8 +3429,13 @@
       <c r="G102" s="1"/>
       <c r="H102" s="1"/>
       <c r="I102" s="1"/>
-    </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J102" s="1"/>
+      <c r="K102" s="1"/>
+      <c r="L102" s="1"/>
+      <c r="M102" s="1"/>
+      <c r="N102" s="1"/>
+    </row>
+    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
@@ -2389,8 +3444,13 @@
       <c r="G103" s="1"/>
       <c r="H103" s="1"/>
       <c r="I103" s="1"/>
-    </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J103" s="1"/>
+      <c r="K103" s="1"/>
+      <c r="L103" s="1"/>
+      <c r="M103" s="1"/>
+      <c r="N103" s="1"/>
+    </row>
+    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
@@ -2399,10 +3459,15 @@
       <c r="G104" s="1"/>
       <c r="H104" s="1"/>
       <c r="I104" s="1"/>
-    </row>
-    <row r="105" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J104" s="1"/>
+      <c r="K104" s="1"/>
+      <c r="L104" s="1"/>
+      <c r="M104" s="1"/>
+      <c r="N104" s="1"/>
+    </row>
+    <row r="105" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B105" s="7" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C105" s="6"/>
       <c r="D105" s="6"/>
@@ -2421,8 +3486,23 @@
       <c r="I105" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J105" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K105" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L105" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M105" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N105" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
@@ -2431,56 +3511,91 @@
       <c r="G106" s="1"/>
       <c r="H106" s="1"/>
       <c r="I106" s="1"/>
-    </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J106" s="1"/>
+      <c r="K106" s="1"/>
+      <c r="L106" s="1"/>
+      <c r="M106" s="1"/>
+      <c r="N106" s="1"/>
+    </row>
+    <row r="107" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B107" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C107" s="9" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D107" s="9"/>
       <c r="E107" s="9">
+        <v>16207</v>
+      </c>
+      <c r="F107" s="9">
+        <v>33054</v>
+      </c>
+      <c r="G107" s="9">
+        <v>36419</v>
+      </c>
+      <c r="H107" s="9">
+        <v>40000</v>
+      </c>
+      <c r="I107" s="9">
+        <v>40000</v>
+      </c>
+      <c r="J107" s="9">
         <v>-22288</v>
       </c>
-      <c r="F107" s="9">
+      <c r="K107" s="9">
         <v>40932812</v>
       </c>
-      <c r="G107" s="9">
+      <c r="L107" s="9">
         <v>140711380</v>
       </c>
-      <c r="H107" s="9">
+      <c r="M107" s="9">
         <v>164433958</v>
       </c>
-      <c r="I107" s="9">
+      <c r="N107" s="9">
         <v>157454515</v>
       </c>
     </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B108" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C108" s="11" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D108" s="11"/>
       <c r="E108" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F108" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G108" s="11">
+        <v>31</v>
+      </c>
+      <c r="G108" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H108" s="11">
+        <v>756087000000</v>
+      </c>
+      <c r="I108" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="J108" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K108" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L108" s="11">
         <v>1139877000000</v>
       </c>
-      <c r="H108" s="11">
+      <c r="M108" s="11">
         <v>90468622</v>
       </c>
-      <c r="I108" s="11">
+      <c r="N108" s="11">
         <v>175504271</v>
       </c>
     </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
@@ -2489,8 +3604,13 @@
       <c r="G109" s="1"/>
       <c r="H109" s="1"/>
       <c r="I109" s="1"/>
-    </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J109" s="1"/>
+      <c r="K109" s="1"/>
+      <c r="L109" s="1"/>
+      <c r="M109" s="1"/>
+      <c r="N109" s="1"/>
+    </row>
+    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
@@ -2499,8 +3619,13 @@
       <c r="G110" s="1"/>
       <c r="H110" s="1"/>
       <c r="I110" s="1"/>
-    </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J110" s="1"/>
+      <c r="K110" s="1"/>
+      <c r="L110" s="1"/>
+      <c r="M110" s="1"/>
+      <c r="N110" s="1"/>
+    </row>
+    <row r="111" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
@@ -2509,10 +3634,15 @@
       <c r="G111" s="1"/>
       <c r="H111" s="1"/>
       <c r="I111" s="1"/>
-    </row>
-    <row r="112" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J111" s="1"/>
+      <c r="K111" s="1"/>
+      <c r="L111" s="1"/>
+      <c r="M111" s="1"/>
+      <c r="N111" s="1"/>
+    </row>
+    <row r="112" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B112" s="7" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C112" s="6"/>
       <c r="D112" s="6"/>
@@ -2531,8 +3661,23 @@
       <c r="I112" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J112" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K112" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L112" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M112" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N112" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="113" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
@@ -2541,56 +3686,91 @@
       <c r="G113" s="1"/>
       <c r="H113" s="1"/>
       <c r="I113" s="1"/>
-    </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J113" s="1"/>
+      <c r="K113" s="1"/>
+      <c r="L113" s="1"/>
+      <c r="M113" s="1"/>
+      <c r="N113" s="1"/>
+    </row>
+    <row r="114" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B114" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C114" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D114" s="9"/>
       <c r="E114" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F114" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G114" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H114" s="9">
+        <v>31</v>
+      </c>
+      <c r="H114" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I114" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J114" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K114" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L114" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M114" s="9">
         <v>158239492</v>
       </c>
-      <c r="I114" s="9">
+      <c r="N114" s="9">
         <v>157263551</v>
       </c>
     </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B115" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C115" s="11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D115" s="11"/>
       <c r="E115" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F115" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G115" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H115" s="11">
+        <v>31</v>
+      </c>
+      <c r="H115" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I115" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="J115" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K115" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L115" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M115" s="11">
         <v>141068957</v>
       </c>
-      <c r="I115" s="11">
+      <c r="N115" s="11">
         <v>131885848</v>
       </c>
     </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
@@ -2599,8 +3779,13 @@
       <c r="G116" s="1"/>
       <c r="H116" s="1"/>
       <c r="I116" s="1"/>
-    </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J116" s="1"/>
+      <c r="K116" s="1"/>
+      <c r="L116" s="1"/>
+      <c r="M116" s="1"/>
+      <c r="N116" s="1"/>
+    </row>
+    <row r="117" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
@@ -2609,8 +3794,13 @@
       <c r="G117" s="1"/>
       <c r="H117" s="1"/>
       <c r="I117" s="1"/>
-    </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J117" s="1"/>
+      <c r="K117" s="1"/>
+      <c r="L117" s="1"/>
+      <c r="M117" s="1"/>
+      <c r="N117" s="1"/>
+    </row>
+    <row r="118" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
@@ -2619,10 +3809,15 @@
       <c r="G118" s="1"/>
       <c r="H118" s="1"/>
       <c r="I118" s="1"/>
-    </row>
-    <row r="119" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J118" s="1"/>
+      <c r="K118" s="1"/>
+      <c r="L118" s="1"/>
+      <c r="M118" s="1"/>
+      <c r="N118" s="1"/>
+    </row>
+    <row r="119" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B119" s="7" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C119" s="6"/>
       <c r="D119" s="6"/>
@@ -2641,8 +3836,23 @@
       <c r="I119" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J119" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K119" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L119" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M119" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N119" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="120" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
@@ -2651,10 +3861,15 @@
       <c r="G120" s="1"/>
       <c r="H120" s="1"/>
       <c r="I120" s="1"/>
-    </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J120" s="1"/>
+      <c r="K120" s="1"/>
+      <c r="L120" s="1"/>
+      <c r="M120" s="1"/>
+      <c r="N120" s="1"/>
+    </row>
+    <row r="121" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B121" s="8" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C121" s="9"/>
       <c r="D121" s="9"/>
@@ -2673,10 +3888,25 @@
       <c r="I121" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J121" s="9">
+        <v>0</v>
+      </c>
+      <c r="K121" s="9">
+        <v>0</v>
+      </c>
+      <c r="L121" s="9">
+        <v>0</v>
+      </c>
+      <c r="M121" s="9">
+        <v>0</v>
+      </c>
+      <c r="N121" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B122" s="10" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C122" s="11"/>
       <c r="D122" s="11"/>
@@ -2695,10 +3925,25 @@
       <c r="I122" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="123" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J122" s="11">
+        <v>0</v>
+      </c>
+      <c r="K122" s="11">
+        <v>0</v>
+      </c>
+      <c r="L122" s="11">
+        <v>0</v>
+      </c>
+      <c r="M122" s="11">
+        <v>0</v>
+      </c>
+      <c r="N122" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B123" s="8" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C123" s="9"/>
       <c r="D123" s="9"/>
@@ -2717,10 +3962,25 @@
       <c r="I123" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J123" s="9">
+        <v>0</v>
+      </c>
+      <c r="K123" s="9">
+        <v>0</v>
+      </c>
+      <c r="L123" s="9">
+        <v>0</v>
+      </c>
+      <c r="M123" s="9">
+        <v>0</v>
+      </c>
+      <c r="N123" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B124" s="10" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C124" s="11"/>
       <c r="D124" s="11"/>
@@ -2739,10 +3999,25 @@
       <c r="I124" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="125" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J124" s="11">
+        <v>0</v>
+      </c>
+      <c r="K124" s="11">
+        <v>0</v>
+      </c>
+      <c r="L124" s="11">
+        <v>0</v>
+      </c>
+      <c r="M124" s="11">
+        <v>0</v>
+      </c>
+      <c r="N124" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B125" s="8" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C125" s="9"/>
       <c r="D125" s="9"/>
@@ -2761,76 +4036,136 @@
       <c r="I125" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J125" s="9">
+        <v>0</v>
+      </c>
+      <c r="K125" s="9">
+        <v>0</v>
+      </c>
+      <c r="L125" s="9">
+        <v>0</v>
+      </c>
+      <c r="M125" s="9">
+        <v>0</v>
+      </c>
+      <c r="N125" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B126" s="10" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C126" s="11"/>
       <c r="D126" s="11"/>
       <c r="E126" s="11">
+        <v>10011</v>
+      </c>
+      <c r="F126" s="11">
+        <v>10338</v>
+      </c>
+      <c r="G126" s="11">
+        <v>6043</v>
+      </c>
+      <c r="H126" s="11">
+        <v>8087</v>
+      </c>
+      <c r="I126" s="11">
+        <v>10325</v>
+      </c>
+      <c r="J126" s="11">
         <v>26646</v>
       </c>
-      <c r="F126" s="11">
+      <c r="K126" s="11">
         <v>25136</v>
       </c>
-      <c r="G126" s="11">
+      <c r="L126" s="11">
         <v>6117</v>
       </c>
-      <c r="H126" s="11">
+      <c r="M126" s="11">
         <v>14518</v>
       </c>
-      <c r="I126" s="11">
+      <c r="N126" s="11">
         <v>12962</v>
       </c>
     </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B127" s="8" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C127" s="9"/>
       <c r="D127" s="9"/>
       <c r="E127" s="9">
+        <v>41158</v>
+      </c>
+      <c r="F127" s="9">
+        <v>40822</v>
+      </c>
+      <c r="G127" s="9">
+        <v>60090</v>
+      </c>
+      <c r="H127" s="9">
+        <v>47699</v>
+      </c>
+      <c r="I127" s="9">
+        <v>51654</v>
+      </c>
+      <c r="J127" s="9">
         <v>38101</v>
       </c>
-      <c r="F127" s="9">
+      <c r="K127" s="9">
         <v>39265</v>
       </c>
-      <c r="G127" s="9">
+      <c r="L127" s="9">
         <v>40719</v>
       </c>
-      <c r="H127" s="9">
+      <c r="M127" s="9">
         <v>43264</v>
       </c>
-      <c r="I127" s="9">
+      <c r="N127" s="9">
         <v>55756</v>
       </c>
     </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B128" s="10" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C128" s="11"/>
       <c r="D128" s="11"/>
       <c r="E128" s="11">
+        <v>42568</v>
+      </c>
+      <c r="F128" s="11">
+        <v>40317</v>
+      </c>
+      <c r="G128" s="11">
+        <v>51423</v>
+      </c>
+      <c r="H128" s="11">
+        <v>67471</v>
+      </c>
+      <c r="I128" s="11">
+        <v>70839</v>
+      </c>
+      <c r="J128" s="11">
         <v>76101</v>
       </c>
-      <c r="F128" s="11">
+      <c r="K128" s="11">
         <v>85089</v>
       </c>
-      <c r="G128" s="11">
+      <c r="L128" s="11">
         <v>147020</v>
       </c>
-      <c r="H128" s="11">
+      <c r="M128" s="11">
         <v>147200</v>
       </c>
-      <c r="I128" s="11">
+      <c r="N128" s="11">
         <v>157624</v>
       </c>
     </row>
-    <row r="129" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B129" s="8" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C129" s="9"/>
       <c r="D129" s="9"/>
@@ -2849,110 +4184,155 @@
       <c r="I129" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="130" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J129" s="9">
+        <v>0</v>
+      </c>
+      <c r="K129" s="9">
+        <v>0</v>
+      </c>
+      <c r="L129" s="9">
+        <v>0</v>
+      </c>
+      <c r="M129" s="9">
+        <v>0</v>
+      </c>
+      <c r="N129" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B130" s="10" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C130" s="11"/>
       <c r="D130" s="11"/>
       <c r="E130" s="11">
+        <v>17011</v>
+      </c>
+      <c r="F130" s="11">
+        <v>66727</v>
+      </c>
+      <c r="G130" s="11">
+        <v>43187</v>
+      </c>
+      <c r="H130" s="11">
+        <v>56032</v>
+      </c>
+      <c r="I130" s="11">
+        <v>87354</v>
+      </c>
+      <c r="J130" s="11">
         <v>45047</v>
       </c>
-      <c r="F130" s="11">
+      <c r="K130" s="11">
         <v>219150</v>
       </c>
-      <c r="G130" s="11">
+      <c r="L130" s="11">
         <v>116279</v>
       </c>
-      <c r="H130" s="11">
+      <c r="M130" s="11">
         <v>122537</v>
       </c>
-      <c r="I130" s="11">
+      <c r="N130" s="11">
         <v>19534</v>
       </c>
     </row>
-    <row r="131" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B131" s="14" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C131" s="15"/>
       <c r="D131" s="15"/>
       <c r="E131" s="15">
+        <v>110748</v>
+      </c>
+      <c r="F131" s="15">
+        <v>158204</v>
+      </c>
+      <c r="G131" s="15">
+        <v>160743</v>
+      </c>
+      <c r="H131" s="15">
+        <v>179289</v>
+      </c>
+      <c r="I131" s="15">
+        <v>220172</v>
+      </c>
+      <c r="J131" s="15">
         <v>185895</v>
       </c>
-      <c r="F131" s="15">
+      <c r="K131" s="15">
         <v>368640</v>
       </c>
-      <c r="G131" s="15">
+      <c r="L131" s="15">
         <v>310135</v>
       </c>
-      <c r="H131" s="15">
+      <c r="M131" s="15">
         <v>327519</v>
       </c>
-      <c r="I131" s="15">
+      <c r="N131" s="15">
         <v>245876</v>
       </c>
     </row>
-    <row r="135" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B135" s="7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C135" s="6"/>
       <c r="D135" s="6"/>
       <c r="E135" s="6"/>
       <c r="F135" s="6"/>
     </row>
-    <row r="137" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B137" s="8" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C137" s="9" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D137" s="9"/>
       <c r="E137" s="9"/>
       <c r="F137" s="9"/>
     </row>
-    <row r="138" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B138" s="10" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C138" s="11" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="D138" s="11"/>
       <c r="E138" s="11"/>
       <c r="F138" s="11"/>
     </row>
-    <row r="139" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B139" s="8" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C139" s="9" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D139" s="9"/>
       <c r="E139" s="9"/>
       <c r="F139" s="9"/>
     </row>
-    <row r="140" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B140" s="10" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C140" s="11" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D140" s="11"/>
       <c r="E140" s="11"/>
       <c r="F140" s="11"/>
     </row>
-    <row r="141" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B141" s="8" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C141" s="9" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="D141" s="9"/>
       <c r="E141" s="9"/>

--- a/database/industries/ghaza/ghezar/cost/quarterly.xlsx
+++ b/database/industries/ghaza/ghezar/cost/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\ghaza\ghezar\cost\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\ghaza\ghezar\cost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60FC6395-87E0-4B2D-90CE-A23D8ACF6A51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A07D69C-5EDF-491F-B4BF-BE0A7C86CF4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="69">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -34,9 +34,6 @@
     <t>بهای تمام شده</t>
   </si>
   <si>
-    <t>فصل دوم منتهی به 1399/06</t>
-  </si>
-  <si>
     <t>فصل سوم منتهی به 1399/09</t>
   </si>
   <si>
@@ -62,6 +59,9 @@
   </si>
   <si>
     <t>فصل سوم منتهی به 1401/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1401/12</t>
   </si>
   <si>
     <t>مواد مستقیم مصرفی</t>
@@ -686,12 +686,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -706,7 +706,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -723,7 +723,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -740,7 +740,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -755,7 +755,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -772,7 +772,7 @@
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -789,7 +789,7 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -804,7 +804,7 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
@@ -841,7 +841,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -856,155 +856,155 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
-        <v>2413007</v>
+        <v>2870968</v>
       </c>
       <c r="F10" s="9">
-        <v>2870968</v>
+        <v>1918201</v>
       </c>
       <c r="G10" s="9">
-        <v>1918201</v>
+        <v>3121635</v>
       </c>
       <c r="H10" s="9">
-        <v>3121635</v>
+        <v>3509404</v>
       </c>
       <c r="I10" s="9">
-        <v>3509404</v>
+        <v>3720191</v>
       </c>
       <c r="J10" s="9">
-        <v>3720191</v>
+        <v>3315611</v>
       </c>
       <c r="K10" s="9">
-        <v>3315611</v>
+        <v>6806465</v>
       </c>
       <c r="L10" s="9">
-        <v>6806465</v>
+        <v>7850877</v>
       </c>
       <c r="M10" s="9">
-        <v>7850877</v>
+        <v>8583386</v>
       </c>
       <c r="N10" s="9">
-        <v>8583386</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+        <v>10732606</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>15</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>61663</v>
+        <v>62789</v>
       </c>
       <c r="F11" s="11">
-        <v>62789</v>
+        <v>63151</v>
       </c>
       <c r="G11" s="11">
-        <v>63151</v>
+        <v>90713</v>
       </c>
       <c r="H11" s="11">
-        <v>90713</v>
+        <v>99650</v>
       </c>
       <c r="I11" s="11">
-        <v>99650</v>
+        <v>103456</v>
       </c>
       <c r="J11" s="11">
-        <v>103456</v>
+        <v>108576</v>
       </c>
       <c r="K11" s="11">
-        <v>108576</v>
+        <v>132915</v>
       </c>
       <c r="L11" s="11">
-        <v>132915</v>
+        <v>151825</v>
       </c>
       <c r="M11" s="11">
-        <v>151825</v>
+        <v>131159</v>
       </c>
       <c r="N11" s="11">
-        <v>131159</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+        <v>145183</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>16</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
-        <v>110748</v>
+        <v>158204</v>
       </c>
       <c r="F12" s="9">
-        <v>158204</v>
+        <v>160743</v>
       </c>
       <c r="G12" s="9">
-        <v>160743</v>
+        <v>179289</v>
       </c>
       <c r="H12" s="9">
-        <v>179289</v>
+        <v>220172</v>
       </c>
       <c r="I12" s="9">
-        <v>220172</v>
+        <v>185895</v>
       </c>
       <c r="J12" s="9">
-        <v>185895</v>
+        <v>368640</v>
       </c>
       <c r="K12" s="9">
-        <v>368640</v>
+        <v>310135</v>
       </c>
       <c r="L12" s="9">
-        <v>310135</v>
+        <v>327519</v>
       </c>
       <c r="M12" s="9">
-        <v>327519</v>
+        <v>245876</v>
       </c>
       <c r="N12" s="9">
-        <v>245876</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+        <v>509543</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13">
-        <v>2585418</v>
+        <v>3091961</v>
       </c>
       <c r="F13" s="13">
-        <v>3091961</v>
+        <v>2142095</v>
       </c>
       <c r="G13" s="13">
-        <v>2142095</v>
+        <v>3391637</v>
       </c>
       <c r="H13" s="13">
-        <v>3391637</v>
+        <v>3829226</v>
       </c>
       <c r="I13" s="13">
-        <v>3829226</v>
+        <v>4009542</v>
       </c>
       <c r="J13" s="13">
-        <v>4009542</v>
+        <v>3792827</v>
       </c>
       <c r="K13" s="13">
-        <v>3792827</v>
+        <v>7249515</v>
       </c>
       <c r="L13" s="13">
-        <v>7249515</v>
+        <v>8330221</v>
       </c>
       <c r="M13" s="13">
-        <v>8330221</v>
+        <v>8960421</v>
       </c>
       <c r="N13" s="13">
-        <v>8960421</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+        <v>11387332</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>18</v>
       </c>
@@ -1032,63 +1032,63 @@
         <v>0</v>
       </c>
       <c r="L14" s="9">
-        <v>0</v>
+        <v>-78718</v>
       </c>
       <c r="M14" s="9">
-        <v>-78718</v>
+        <v>78718</v>
       </c>
       <c r="N14" s="9">
-        <v>78718</v>
-      </c>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-111883</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
         <v>19</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13">
-        <v>2585418</v>
+        <v>3091961</v>
       </c>
       <c r="F15" s="13">
-        <v>3091961</v>
+        <v>2142095</v>
       </c>
       <c r="G15" s="13">
-        <v>2142095</v>
+        <v>3391637</v>
       </c>
       <c r="H15" s="13">
-        <v>3391637</v>
+        <v>3829226</v>
       </c>
       <c r="I15" s="13">
-        <v>3829226</v>
+        <v>4009542</v>
       </c>
       <c r="J15" s="13">
-        <v>4009542</v>
+        <v>3792827</v>
       </c>
       <c r="K15" s="13">
-        <v>3792827</v>
+        <v>7249515</v>
       </c>
       <c r="L15" s="13">
-        <v>7249515</v>
+        <v>8251503</v>
       </c>
       <c r="M15" s="13">
-        <v>8251503</v>
+        <v>9039139</v>
       </c>
       <c r="N15" s="13">
-        <v>9039139</v>
-      </c>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+        <v>11275449</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>20</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
       <c r="E16" s="9">
-        <v>-16192</v>
+        <v>16192</v>
       </c>
       <c r="F16" s="9">
-        <v>16192</v>
+        <v>0</v>
       </c>
       <c r="G16" s="9">
         <v>0</v>
@@ -1100,10 +1100,10 @@
         <v>0</v>
       </c>
       <c r="J16" s="9">
-        <v>0</v>
+        <v>-73091</v>
       </c>
       <c r="K16" s="9">
-        <v>-73091</v>
+        <v>0</v>
       </c>
       <c r="L16" s="9">
         <v>0</v>
@@ -1112,10 +1112,10 @@
         <v>0</v>
       </c>
       <c r="N16" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-78529</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>21</v>
       </c>
@@ -1152,44 +1152,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" s="14" t="s">
         <v>22</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
       <c r="E18" s="15">
-        <v>2569226</v>
+        <v>3108153</v>
       </c>
       <c r="F18" s="15">
-        <v>3108153</v>
+        <v>2142095</v>
       </c>
       <c r="G18" s="15">
-        <v>2142095</v>
+        <v>3391637</v>
       </c>
       <c r="H18" s="15">
-        <v>3391637</v>
+        <v>3829226</v>
       </c>
       <c r="I18" s="15">
-        <v>3829226</v>
+        <v>4009542</v>
       </c>
       <c r="J18" s="15">
-        <v>4009542</v>
+        <v>3719736</v>
       </c>
       <c r="K18" s="15">
-        <v>3719736</v>
+        <v>7249515</v>
       </c>
       <c r="L18" s="15">
-        <v>7249515</v>
+        <v>8251503</v>
       </c>
       <c r="M18" s="15">
-        <v>8251503</v>
+        <v>9039139</v>
       </c>
       <c r="N18" s="15">
-        <v>9039139</v>
-      </c>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+        <v>11196920</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>23</v>
       </c>
@@ -1199,108 +1199,108 @@
         <v>0</v>
       </c>
       <c r="F19" s="11">
-        <v>0</v>
+        <v>673641</v>
       </c>
       <c r="G19" s="11">
-        <v>-59371</v>
+        <v>584842</v>
       </c>
       <c r="H19" s="11">
-        <v>584842</v>
+        <v>1</v>
       </c>
       <c r="I19" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19" s="11">
-        <v>0</v>
+        <v>320039</v>
       </c>
       <c r="K19" s="11">
-        <v>108914</v>
+        <v>259260</v>
       </c>
       <c r="L19" s="11">
-        <v>259260</v>
+        <v>724949</v>
       </c>
       <c r="M19" s="11">
-        <v>724949</v>
+        <v>826095</v>
       </c>
       <c r="N19" s="11">
-        <v>826095</v>
-      </c>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+        <v>625746</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9">
-        <v>-277378</v>
+        <v>-4186</v>
       </c>
       <c r="F20" s="9">
-        <v>-4186</v>
+        <v>-584843</v>
       </c>
       <c r="G20" s="9">
-        <v>88798</v>
+        <v>-556351</v>
       </c>
       <c r="H20" s="9">
-        <v>-556351</v>
+        <v>345226</v>
       </c>
       <c r="I20" s="9">
-        <v>345226</v>
+        <v>-108914</v>
       </c>
       <c r="J20" s="9">
-        <v>-108914</v>
+        <v>-260004</v>
       </c>
       <c r="K20" s="9">
-        <v>-260004</v>
+        <v>-724949</v>
       </c>
       <c r="L20" s="9">
-        <v>-724949</v>
+        <v>-826095</v>
       </c>
       <c r="M20" s="9">
-        <v>-826095</v>
+        <v>-625746</v>
       </c>
       <c r="N20" s="9">
-        <v>-625746</v>
-      </c>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-726874</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
         <v>25</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
       <c r="E21" s="13">
-        <v>2291848</v>
+        <v>3103967</v>
       </c>
       <c r="F21" s="13">
-        <v>3103967</v>
+        <v>2171522</v>
       </c>
       <c r="G21" s="13">
-        <v>2171522</v>
+        <v>3420128</v>
       </c>
       <c r="H21" s="13">
-        <v>3420128</v>
+        <v>4174453</v>
       </c>
       <c r="I21" s="13">
-        <v>4174453</v>
+        <v>3900628</v>
       </c>
       <c r="J21" s="13">
-        <v>3900628</v>
+        <v>3777938</v>
       </c>
       <c r="K21" s="13">
-        <v>3777938</v>
+        <v>6783826</v>
       </c>
       <c r="L21" s="13">
-        <v>6783826</v>
+        <v>8151101</v>
       </c>
       <c r="M21" s="13">
-        <v>8151101</v>
+        <v>9239488</v>
       </c>
       <c r="N21" s="13">
-        <v>9239488</v>
-      </c>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+        <v>11095792</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
         <v>26</v>
       </c>
@@ -1310,10 +1310,10 @@
         <v>0</v>
       </c>
       <c r="F22" s="9">
-        <v>0</v>
+        <v>961258</v>
       </c>
       <c r="G22" s="9">
-        <v>961258</v>
+        <v>0</v>
       </c>
       <c r="H22" s="9">
         <v>0</v>
@@ -1328,53 +1328,53 @@
         <v>0</v>
       </c>
       <c r="L22" s="9">
-        <v>0</v>
+        <v>-25873</v>
       </c>
       <c r="M22" s="9">
-        <v>-25873</v>
+        <v>55114</v>
       </c>
       <c r="N22" s="9">
-        <v>55114</v>
-      </c>
-    </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-29241</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
         <v>27</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
       <c r="E23" s="13">
-        <v>2291848</v>
+        <v>3103967</v>
       </c>
       <c r="F23" s="13">
-        <v>3103967</v>
+        <v>3132780</v>
       </c>
       <c r="G23" s="13">
-        <v>3132780</v>
+        <v>3420128</v>
       </c>
       <c r="H23" s="13">
-        <v>3420128</v>
+        <v>4174453</v>
       </c>
       <c r="I23" s="13">
-        <v>4174453</v>
+        <v>3900628</v>
       </c>
       <c r="J23" s="13">
-        <v>3900628</v>
+        <v>3777938</v>
       </c>
       <c r="K23" s="13">
-        <v>3777938</v>
+        <v>6783826</v>
       </c>
       <c r="L23" s="13">
-        <v>6783826</v>
+        <v>8125228</v>
       </c>
       <c r="M23" s="13">
-        <v>8125228</v>
+        <v>9294602</v>
       </c>
       <c r="N23" s="13">
-        <v>9294602</v>
-      </c>
-    </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+        <v>11066551</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1389,7 +1389,7 @@
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1404,7 +1404,7 @@
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1419,7 +1419,7 @@
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
     </row>
-    <row r="27" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B27" s="7" t="s">
         <v>28</v>
       </c>
@@ -1456,7 +1456,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1471,7 +1471,7 @@
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B29" s="8" t="s">
         <v>29</v>
       </c>
@@ -1480,13 +1480,13 @@
       </c>
       <c r="D29" s="9"/>
       <c r="E29" s="9">
-        <v>54464551</v>
+        <v>627863</v>
       </c>
       <c r="F29" s="9">
-        <v>627863</v>
+        <v>1101988</v>
       </c>
       <c r="G29" s="9">
-        <v>1101988</v>
+        <v>0</v>
       </c>
       <c r="H29" s="9">
         <v>0</v>
@@ -1494,23 +1494,23 @@
       <c r="I29" s="9">
         <v>0</v>
       </c>
-      <c r="J29" s="9">
-        <v>0</v>
-      </c>
-      <c r="K29" s="9" t="s">
-        <v>31</v>
+      <c r="J29" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K29" s="9">
+        <v>0</v>
       </c>
       <c r="L29" s="9">
         <v>0</v>
       </c>
       <c r="M29" s="9">
-        <v>0</v>
+        <v>1023</v>
       </c>
       <c r="N29" s="9">
-        <v>1023</v>
-      </c>
-    </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
         <v>32</v>
       </c>
@@ -1533,36 +1533,36 @@
       <c r="I30" s="11">
         <v>0</v>
       </c>
-      <c r="J30" s="11">
-        <v>0</v>
-      </c>
-      <c r="K30" s="11" t="s">
-        <v>31</v>
+      <c r="J30" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K30" s="11">
+        <v>0</v>
       </c>
       <c r="L30" s="11">
         <v>0</v>
       </c>
       <c r="M30" s="11">
-        <v>0</v>
+        <v>8411</v>
       </c>
       <c r="N30" s="11">
-        <v>8411</v>
-      </c>
-    </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+        <v>8734</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B31" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C31" s="15"/>
       <c r="D31" s="15"/>
       <c r="E31" s="15">
-        <v>54464551</v>
+        <v>627863</v>
       </c>
       <c r="F31" s="15">
-        <v>627863</v>
+        <v>1101988</v>
       </c>
       <c r="G31" s="15">
-        <v>1101988</v>
+        <v>0</v>
       </c>
       <c r="H31" s="15">
         <v>0</v>
@@ -1580,13 +1580,13 @@
         <v>0</v>
       </c>
       <c r="M31" s="15">
-        <v>0</v>
+        <v>9434</v>
       </c>
       <c r="N31" s="15">
-        <v>9434</v>
-      </c>
-    </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+        <v>9804</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -1601,7 +1601,7 @@
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -1616,7 +1616,7 @@
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -1631,7 +1631,7 @@
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
     </row>
-    <row r="35" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B35" s="7" t="s">
         <v>34</v>
       </c>
@@ -1668,7 +1668,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -1683,7 +1683,7 @@
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B37" s="8" t="s">
         <v>29</v>
       </c>
@@ -1692,37 +1692,37 @@
       </c>
       <c r="D37" s="9"/>
       <c r="E37" s="9">
-        <v>58394455</v>
+        <v>65276344</v>
       </c>
       <c r="F37" s="9">
-        <v>65276344</v>
+        <v>53625797</v>
       </c>
       <c r="G37" s="9">
-        <v>53625797</v>
+        <v>59138700</v>
       </c>
       <c r="H37" s="9">
-        <v>59138700</v>
+        <v>61726097</v>
       </c>
       <c r="I37" s="9">
-        <v>61726097</v>
+        <v>-120680493</v>
       </c>
       <c r="J37" s="9">
-        <v>-120680493</v>
+        <v>55858</v>
       </c>
       <c r="K37" s="9">
-        <v>55858</v>
+        <v>40271</v>
       </c>
       <c r="L37" s="9">
-        <v>40271</v>
+        <v>38151</v>
       </c>
       <c r="M37" s="9">
-        <v>38151</v>
+        <v>44512</v>
       </c>
       <c r="N37" s="9">
-        <v>44512</v>
-      </c>
-    </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+        <v>176063593</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B38" s="10" t="s">
         <v>32</v>
       </c>
@@ -1737,68 +1737,68 @@
         <v>0</v>
       </c>
       <c r="G38" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H38" s="11">
+        <v>0</v>
+      </c>
+      <c r="I38" s="11">
+        <v>0</v>
+      </c>
+      <c r="J38" s="11">
+        <v>0</v>
+      </c>
+      <c r="K38" s="11">
         <v>1</v>
       </c>
-      <c r="I38" s="11">
-        <v>0</v>
-      </c>
-      <c r="J38" s="11">
-        <v>0</v>
-      </c>
-      <c r="K38" s="11">
-        <v>0</v>
-      </c>
       <c r="L38" s="11">
-        <v>1</v>
+        <v>19062</v>
       </c>
       <c r="M38" s="11">
-        <v>19062</v>
+        <v>9338</v>
       </c>
       <c r="N38" s="11">
-        <v>9338</v>
-      </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+        <v>14090</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B39" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C39" s="15"/>
       <c r="D39" s="15"/>
       <c r="E39" s="15">
-        <v>58394455</v>
+        <v>65276344</v>
       </c>
       <c r="F39" s="15">
-        <v>65276344</v>
+        <v>53625797</v>
       </c>
       <c r="G39" s="15">
-        <v>53625797</v>
+        <v>59138701</v>
       </c>
       <c r="H39" s="15">
-        <v>59138701</v>
+        <v>61726097</v>
       </c>
       <c r="I39" s="15">
-        <v>61726097</v>
+        <v>-120680493</v>
       </c>
       <c r="J39" s="15">
-        <v>-120680493</v>
+        <v>55858</v>
       </c>
       <c r="K39" s="15">
-        <v>55858</v>
+        <v>40272</v>
       </c>
       <c r="L39" s="15">
-        <v>40272</v>
+        <v>57213</v>
       </c>
       <c r="M39" s="15">
-        <v>57213</v>
+        <v>53850</v>
       </c>
       <c r="N39" s="15">
-        <v>53850</v>
-      </c>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+        <v>176077683</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -1813,7 +1813,7 @@
       <c r="M40" s="1"/>
       <c r="N40" s="1"/>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -1828,7 +1828,7 @@
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -1843,7 +1843,7 @@
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
     </row>
-    <row r="43" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B43" s="7" t="s">
         <v>35</v>
       </c>
@@ -1880,7 +1880,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -1895,7 +1895,7 @@
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B45" s="8" t="s">
         <v>29</v>
       </c>
@@ -1904,37 +1904,37 @@
       </c>
       <c r="D45" s="9"/>
       <c r="E45" s="9">
-        <v>112231143</v>
+        <v>64802219</v>
       </c>
       <c r="F45" s="9">
-        <v>64802219</v>
+        <v>54727785</v>
       </c>
       <c r="G45" s="9">
-        <v>54727785</v>
+        <v>59138700</v>
       </c>
       <c r="H45" s="9">
-        <v>59138700</v>
+        <v>61726097</v>
       </c>
       <c r="I45" s="9">
-        <v>61726097</v>
+        <v>-120680493</v>
       </c>
       <c r="J45" s="9">
-        <v>-120680493</v>
+        <v>55858</v>
       </c>
       <c r="K45" s="9">
-        <v>55858</v>
+        <v>40271</v>
       </c>
       <c r="L45" s="9">
-        <v>40271</v>
+        <v>37128</v>
       </c>
       <c r="M45" s="9">
-        <v>37128</v>
+        <v>44465</v>
       </c>
       <c r="N45" s="9">
-        <v>44465</v>
-      </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+        <v>176064663</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B46" s="10" t="s">
         <v>32</v>
       </c>
@@ -1949,68 +1949,68 @@
         <v>0</v>
       </c>
       <c r="G46" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H46" s="11">
+        <v>0</v>
+      </c>
+      <c r="I46" s="11">
+        <v>0</v>
+      </c>
+      <c r="J46" s="11">
+        <v>0</v>
+      </c>
+      <c r="K46" s="11">
         <v>1</v>
       </c>
-      <c r="I46" s="11">
-        <v>0</v>
-      </c>
-      <c r="J46" s="11">
-        <v>0</v>
-      </c>
-      <c r="K46" s="11">
-        <v>0</v>
-      </c>
       <c r="L46" s="11">
-        <v>1</v>
+        <v>19297</v>
       </c>
       <c r="M46" s="11">
-        <v>19297</v>
+        <v>9015</v>
       </c>
       <c r="N46" s="11">
-        <v>9015</v>
-      </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+        <v>13502</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B47" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C47" s="15"/>
       <c r="D47" s="15"/>
       <c r="E47" s="15">
-        <v>112231143</v>
+        <v>64802219</v>
       </c>
       <c r="F47" s="15">
-        <v>64802219</v>
+        <v>54727785</v>
       </c>
       <c r="G47" s="15">
-        <v>54727785</v>
+        <v>59138701</v>
       </c>
       <c r="H47" s="15">
-        <v>59138701</v>
+        <v>61726097</v>
       </c>
       <c r="I47" s="15">
-        <v>61726097</v>
+        <v>-120680493</v>
       </c>
       <c r="J47" s="15">
-        <v>-120680493</v>
+        <v>55858</v>
       </c>
       <c r="K47" s="15">
-        <v>55858</v>
+        <v>40272</v>
       </c>
       <c r="L47" s="15">
-        <v>40272</v>
+        <v>56425</v>
       </c>
       <c r="M47" s="15">
-        <v>56425</v>
+        <v>53480</v>
       </c>
       <c r="N47" s="15">
-        <v>53480</v>
-      </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+        <v>176078165</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -2025,7 +2025,7 @@
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
     </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -2040,7 +2040,7 @@
       <c r="M49" s="1"/>
       <c r="N49" s="1"/>
     </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -2055,7 +2055,7 @@
       <c r="M50" s="1"/>
       <c r="N50" s="1"/>
     </row>
-    <row r="51" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B51" s="7" t="s">
         <v>36</v>
       </c>
@@ -2092,7 +2092,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -2107,7 +2107,7 @@
       <c r="M52" s="1"/>
       <c r="N52" s="1"/>
     </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B53" s="8" t="s">
         <v>29</v>
       </c>
@@ -2116,10 +2116,10 @@
       </c>
       <c r="D53" s="9"/>
       <c r="E53" s="9">
-        <v>627863</v>
+        <v>1101988</v>
       </c>
       <c r="F53" s="9">
-        <v>1101988</v>
+        <v>0</v>
       </c>
       <c r="G53" s="9">
         <v>0</v>
@@ -2137,16 +2137,16 @@
         <v>0</v>
       </c>
       <c r="L53" s="9">
-        <v>0</v>
+        <v>1023</v>
       </c>
       <c r="M53" s="9">
-        <v>1023</v>
+        <v>1070</v>
       </c>
       <c r="N53" s="9">
-        <v>1070</v>
-      </c>
-    </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B54" s="10" t="s">
         <v>32</v>
       </c>
@@ -2176,26 +2176,26 @@
         <v>0</v>
       </c>
       <c r="L54" s="11">
-        <v>0</v>
+        <v>8411</v>
       </c>
       <c r="M54" s="11">
-        <v>8411</v>
+        <v>8734</v>
       </c>
       <c r="N54" s="11">
-        <v>8734</v>
-      </c>
-    </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+        <v>9322</v>
+      </c>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B55" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C55" s="15"/>
       <c r="D55" s="15"/>
       <c r="E55" s="15">
-        <v>627863</v>
+        <v>1101988</v>
       </c>
       <c r="F55" s="15">
-        <v>1101988</v>
+        <v>0</v>
       </c>
       <c r="G55" s="15">
         <v>0</v>
@@ -2213,16 +2213,16 @@
         <v>0</v>
       </c>
       <c r="L55" s="15">
-        <v>0</v>
+        <v>9434</v>
       </c>
       <c r="M55" s="15">
-        <v>9434</v>
+        <v>9804</v>
       </c>
       <c r="N55" s="15">
-        <v>9804</v>
-      </c>
-    </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+        <v>9322</v>
+      </c>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -2237,7 +2237,7 @@
       <c r="M56" s="1"/>
       <c r="N56" s="1"/>
     </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -2252,7 +2252,7 @@
       <c r="M57" s="1"/>
       <c r="N57" s="1"/>
     </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -2267,7 +2267,7 @@
       <c r="M58" s="1"/>
       <c r="N58" s="1"/>
     </row>
-    <row r="59" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B59" s="7" t="s">
         <v>37</v>
       </c>
@@ -2304,7 +2304,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -2319,7 +2319,7 @@
       <c r="M60" s="1"/>
       <c r="N60" s="1"/>
     </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B61" s="8" t="s">
         <v>29</v>
       </c>
@@ -2328,13 +2328,13 @@
       </c>
       <c r="D61" s="9"/>
       <c r="E61" s="9">
-        <v>3000</v>
+        <v>19676</v>
       </c>
       <c r="F61" s="9">
-        <v>19676</v>
+        <v>37314</v>
       </c>
       <c r="G61" s="9">
-        <v>37314</v>
+        <v>0</v>
       </c>
       <c r="H61" s="9">
         <v>0</v>
@@ -2342,23 +2342,23 @@
       <c r="I61" s="9">
         <v>0</v>
       </c>
-      <c r="J61" s="9">
-        <v>0</v>
-      </c>
-      <c r="K61" s="9" t="s">
-        <v>31</v>
+      <c r="J61" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K61" s="9">
+        <v>0</v>
       </c>
       <c r="L61" s="9">
         <v>0</v>
       </c>
       <c r="M61" s="9">
-        <v>0</v>
+        <v>161879</v>
       </c>
       <c r="N61" s="9">
-        <v>161879</v>
-      </c>
-    </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
+        <v>168272</v>
+      </c>
+    </row>
+    <row r="62" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B62" s="10" t="s">
         <v>32</v>
       </c>
@@ -2381,36 +2381,36 @@
       <c r="I62" s="11">
         <v>0</v>
       </c>
-      <c r="J62" s="11">
-        <v>0</v>
-      </c>
-      <c r="K62" s="11" t="s">
-        <v>31</v>
+      <c r="J62" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K62" s="11">
+        <v>0</v>
       </c>
       <c r="L62" s="11">
         <v>0</v>
       </c>
       <c r="M62" s="11">
-        <v>0</v>
+        <v>1186531</v>
       </c>
       <c r="N62" s="11">
-        <v>1186531</v>
-      </c>
-    </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1151891</v>
+      </c>
+    </row>
+    <row r="63" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B63" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C63" s="15"/>
       <c r="D63" s="15"/>
       <c r="E63" s="15">
-        <v>3000</v>
+        <v>19676</v>
       </c>
       <c r="F63" s="15">
-        <v>19676</v>
+        <v>37314</v>
       </c>
       <c r="G63" s="15">
-        <v>37314</v>
+        <v>0</v>
       </c>
       <c r="H63" s="15">
         <v>0</v>
@@ -2428,13 +2428,13 @@
         <v>0</v>
       </c>
       <c r="M63" s="15">
-        <v>0</v>
+        <v>1348410</v>
       </c>
       <c r="N63" s="15">
-        <v>1348410</v>
-      </c>
-    </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1320163</v>
+      </c>
+    </row>
+    <row r="64" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -2449,7 +2449,7 @@
       <c r="M64" s="1"/>
       <c r="N64" s="1"/>
     </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -2464,7 +2464,7 @@
       <c r="M65" s="1"/>
       <c r="N65" s="1"/>
     </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -2479,7 +2479,7 @@
       <c r="M66" s="1"/>
       <c r="N66" s="1"/>
     </row>
-    <row r="67" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B67" s="7" t="s">
         <v>39</v>
       </c>
@@ -2516,7 +2516,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -2531,7 +2531,7 @@
       <c r="M68" s="1"/>
       <c r="N68" s="1"/>
     </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B69" s="8" t="s">
         <v>29</v>
       </c>
@@ -2540,37 +2540,37 @@
       </c>
       <c r="D69" s="9"/>
       <c r="E69" s="9">
-        <v>1835641</v>
+        <v>2159611</v>
       </c>
       <c r="F69" s="9">
-        <v>2159611</v>
+        <v>1955823</v>
       </c>
       <c r="G69" s="9">
-        <v>1955823</v>
+        <v>2365548</v>
       </c>
       <c r="H69" s="9">
-        <v>2365548</v>
+        <v>2469044</v>
       </c>
       <c r="I69" s="9">
-        <v>2469044</v>
+        <v>2689694</v>
       </c>
       <c r="J69" s="9">
-        <v>2689694</v>
+        <v>2286425</v>
       </c>
       <c r="K69" s="9">
-        <v>2286425</v>
+        <v>5666588</v>
       </c>
       <c r="L69" s="9">
-        <v>5666588</v>
+        <v>6266983</v>
       </c>
       <c r="M69" s="9">
-        <v>6266983</v>
+        <v>7007608</v>
       </c>
       <c r="N69" s="9">
-        <v>7007608</v>
-      </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
+        <v>8206310</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B70" s="10" t="s">
         <v>32</v>
       </c>
@@ -2579,74 +2579,74 @@
       </c>
       <c r="D70" s="11"/>
       <c r="E70" s="11">
-        <v>594042</v>
+        <v>728995</v>
       </c>
       <c r="F70" s="11">
-        <v>728995</v>
+        <v>886322</v>
       </c>
       <c r="G70" s="11">
-        <v>886322</v>
+        <v>756087</v>
       </c>
       <c r="H70" s="11">
-        <v>756087</v>
+        <v>1040360</v>
       </c>
       <c r="I70" s="11">
-        <v>1040360</v>
+        <v>1030497</v>
       </c>
       <c r="J70" s="11">
-        <v>1030497</v>
+        <v>-80416</v>
       </c>
       <c r="K70" s="11">
-        <v>-80416</v>
+        <v>1139877</v>
       </c>
       <c r="L70" s="11">
-        <v>1139877</v>
+        <v>2261526</v>
       </c>
       <c r="M70" s="11">
-        <v>2261526</v>
+        <v>1547531</v>
       </c>
       <c r="N70" s="11">
-        <v>1547531</v>
-      </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2213652</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B71" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C71" s="15"/>
       <c r="D71" s="15"/>
       <c r="E71" s="15">
-        <v>2429683</v>
+        <v>2888606</v>
       </c>
       <c r="F71" s="15">
-        <v>2888606</v>
+        <v>2842145</v>
       </c>
       <c r="G71" s="15">
-        <v>2842145</v>
+        <v>3121635</v>
       </c>
       <c r="H71" s="15">
-        <v>3121635</v>
+        <v>3509404</v>
       </c>
       <c r="I71" s="15">
-        <v>3509404</v>
+        <v>3720191</v>
       </c>
       <c r="J71" s="15">
-        <v>3720191</v>
+        <v>2206009</v>
       </c>
       <c r="K71" s="15">
-        <v>2206009</v>
+        <v>6806465</v>
       </c>
       <c r="L71" s="15">
-        <v>6806465</v>
+        <v>8528509</v>
       </c>
       <c r="M71" s="15">
-        <v>8528509</v>
+        <v>8555139</v>
       </c>
       <c r="N71" s="15">
-        <v>8555139</v>
-      </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
+        <v>10419962</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -2661,7 +2661,7 @@
       <c r="M72" s="1"/>
       <c r="N72" s="1"/>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -2676,7 +2676,7 @@
       <c r="M73" s="1"/>
       <c r="N73" s="1"/>
     </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -2691,7 +2691,7 @@
       <c r="M74" s="1"/>
       <c r="N74" s="1"/>
     </row>
-    <row r="75" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B75" s="7" t="s">
         <v>40</v>
       </c>
@@ -2728,7 +2728,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -2743,7 +2743,7 @@
       <c r="M76" s="1"/>
       <c r="N76" s="1"/>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B77" s="8" t="s">
         <v>29</v>
       </c>
@@ -2752,37 +2752,37 @@
       </c>
       <c r="D77" s="9"/>
       <c r="E77" s="9">
-        <v>1818965</v>
+        <v>2141973</v>
       </c>
       <c r="F77" s="9">
-        <v>2141973</v>
+        <v>1993137</v>
       </c>
       <c r="G77" s="9">
-        <v>1993137</v>
+        <v>2365548</v>
       </c>
       <c r="H77" s="9">
-        <v>2365548</v>
+        <v>2469044</v>
       </c>
       <c r="I77" s="9">
-        <v>2469044</v>
+        <v>2689694</v>
       </c>
       <c r="J77" s="9">
-        <v>2689694</v>
+        <v>2286425</v>
       </c>
       <c r="K77" s="9">
-        <v>2286425</v>
+        <v>5666588</v>
       </c>
       <c r="L77" s="9">
-        <v>5666588</v>
+        <v>6105104</v>
       </c>
       <c r="M77" s="9">
-        <v>6105104</v>
+        <v>7001215</v>
       </c>
       <c r="N77" s="9">
-        <v>7001215</v>
-      </c>
-    </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
+        <v>8374582</v>
+      </c>
+    </row>
+    <row r="78" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B78" s="10" t="s">
         <v>32</v>
       </c>
@@ -2791,74 +2791,74 @@
       </c>
       <c r="D78" s="11"/>
       <c r="E78" s="11">
-        <v>594042</v>
+        <v>728995</v>
       </c>
       <c r="F78" s="11">
-        <v>728995</v>
+        <v>886322</v>
       </c>
       <c r="G78" s="11">
-        <v>886322</v>
+        <v>756087</v>
       </c>
       <c r="H78" s="11">
-        <v>756087</v>
+        <v>1040360</v>
       </c>
       <c r="I78" s="11">
-        <v>1040360</v>
+        <v>1030497</v>
       </c>
       <c r="J78" s="11">
-        <v>1030497</v>
+        <v>-80416</v>
       </c>
       <c r="K78" s="11">
-        <v>-80416</v>
+        <v>1139877</v>
       </c>
       <c r="L78" s="11">
-        <v>1139877</v>
+        <v>1745773</v>
       </c>
       <c r="M78" s="11">
-        <v>1745773</v>
+        <v>1582171</v>
       </c>
       <c r="N78" s="11">
-        <v>1582171</v>
-      </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2358024</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B79" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C79" s="15"/>
       <c r="D79" s="15"/>
       <c r="E79" s="15">
-        <v>2413007</v>
+        <v>2870968</v>
       </c>
       <c r="F79" s="15">
-        <v>2870968</v>
+        <v>2879459</v>
       </c>
       <c r="G79" s="15">
-        <v>2879459</v>
+        <v>3121635</v>
       </c>
       <c r="H79" s="15">
-        <v>3121635</v>
+        <v>3509404</v>
       </c>
       <c r="I79" s="15">
-        <v>3509404</v>
+        <v>3720191</v>
       </c>
       <c r="J79" s="15">
-        <v>3720191</v>
+        <v>2206009</v>
       </c>
       <c r="K79" s="15">
-        <v>2206009</v>
+        <v>6806465</v>
       </c>
       <c r="L79" s="15">
-        <v>6806465</v>
+        <v>7850877</v>
       </c>
       <c r="M79" s="15">
-        <v>7850877</v>
+        <v>8583386</v>
       </c>
       <c r="N79" s="15">
-        <v>8583386</v>
-      </c>
-    </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
+        <v>10732606</v>
+      </c>
+    </row>
+    <row r="80" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -2873,7 +2873,7 @@
       <c r="M80" s="1"/>
       <c r="N80" s="1"/>
     </row>
-    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -2888,7 +2888,7 @@
       <c r="M81" s="1"/>
       <c r="N81" s="1"/>
     </row>
-    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
@@ -2903,7 +2903,7 @@
       <c r="M82" s="1"/>
       <c r="N82" s="1"/>
     </row>
-    <row r="83" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B83" s="7" t="s">
         <v>41</v>
       </c>
@@ -2940,7 +2940,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
@@ -2955,7 +2955,7 @@
       <c r="M84" s="1"/>
       <c r="N84" s="1"/>
     </row>
-    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B85" s="8" t="s">
         <v>29</v>
       </c>
@@ -2964,10 +2964,10 @@
       </c>
       <c r="D85" s="9"/>
       <c r="E85" s="9">
-        <v>19676</v>
+        <v>37314</v>
       </c>
       <c r="F85" s="9">
-        <v>37314</v>
+        <v>0</v>
       </c>
       <c r="G85" s="9">
         <v>0</v>
@@ -2985,16 +2985,16 @@
         <v>0</v>
       </c>
       <c r="L85" s="9">
-        <v>0</v>
+        <v>161879</v>
       </c>
       <c r="M85" s="9">
-        <v>161879</v>
+        <v>168272</v>
       </c>
       <c r="N85" s="9">
-        <v>168272</v>
-      </c>
-    </row>
-    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B86" s="10" t="s">
         <v>32</v>
       </c>
@@ -3024,26 +3024,26 @@
         <v>0</v>
       </c>
       <c r="L86" s="11">
-        <v>0</v>
+        <v>1186531</v>
       </c>
       <c r="M86" s="11">
-        <v>1186531</v>
+        <v>1151891</v>
       </c>
       <c r="N86" s="11">
-        <v>1151891</v>
-      </c>
-    </row>
-    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1007519</v>
+      </c>
+    </row>
+    <row r="87" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B87" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C87" s="15"/>
       <c r="D87" s="15"/>
       <c r="E87" s="15">
-        <v>19676</v>
+        <v>37314</v>
       </c>
       <c r="F87" s="15">
-        <v>37314</v>
+        <v>0</v>
       </c>
       <c r="G87" s="15">
         <v>0</v>
@@ -3061,16 +3061,16 @@
         <v>0</v>
       </c>
       <c r="L87" s="15">
-        <v>0</v>
+        <v>1348410</v>
       </c>
       <c r="M87" s="15">
-        <v>1348410</v>
+        <v>1320163</v>
       </c>
       <c r="N87" s="15">
-        <v>1320163</v>
-      </c>
-    </row>
-    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1007519</v>
+      </c>
+    </row>
+    <row r="88" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -3085,7 +3085,7 @@
       <c r="M88" s="1"/>
       <c r="N88" s="1"/>
     </row>
-    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
@@ -3100,7 +3100,7 @@
       <c r="M89" s="1"/>
       <c r="N89" s="1"/>
     </row>
-    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -3115,7 +3115,7 @@
       <c r="M90" s="1"/>
       <c r="N90" s="1"/>
     </row>
-    <row r="91" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B91" s="7" t="s">
         <v>42</v>
       </c>
@@ -3152,7 +3152,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
@@ -3167,7 +3167,7 @@
       <c r="M92" s="1"/>
       <c r="N92" s="1"/>
     </row>
-    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B93" s="8" t="s">
         <v>29</v>
       </c>
@@ -3176,14 +3176,14 @@
       </c>
       <c r="D93" s="9"/>
       <c r="E93" s="9">
-        <v>55</v>
+        <v>31338</v>
       </c>
       <c r="F93" s="9">
-        <v>31338</v>
-      </c>
-      <c r="G93" s="9">
         <v>33861</v>
       </c>
+      <c r="G93" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="H93" s="9" t="s">
         <v>31</v>
       </c>
@@ -3206,7 +3206,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B94" s="10" t="s">
         <v>32</v>
       </c>
@@ -3238,14 +3238,14 @@
       <c r="L94" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="M94" s="11" t="s">
-        <v>31</v>
+      <c r="M94" s="11">
+        <v>141068957</v>
       </c>
       <c r="N94" s="11">
-        <v>141068957</v>
-      </c>
-    </row>
-    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
+        <v>131885848</v>
+      </c>
+    </row>
+    <row r="95" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
@@ -3260,7 +3260,7 @@
       <c r="M95" s="1"/>
       <c r="N95" s="1"/>
     </row>
-    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
@@ -3275,7 +3275,7 @@
       <c r="M96" s="1"/>
       <c r="N96" s="1"/>
     </row>
-    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
@@ -3290,7 +3290,7 @@
       <c r="M97" s="1"/>
       <c r="N97" s="1"/>
     </row>
-    <row r="98" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B98" s="7" t="s">
         <v>45</v>
       </c>
@@ -3327,7 +3327,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
@@ -3342,7 +3342,7 @@
       <c r="M99" s="1"/>
       <c r="N99" s="1"/>
     </row>
-    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B100" s="8" t="s">
         <v>29</v>
       </c>
@@ -3351,37 +3351,37 @@
       </c>
       <c r="D100" s="9"/>
       <c r="E100" s="9">
-        <v>31435</v>
+        <v>33084</v>
       </c>
       <c r="F100" s="9">
-        <v>33084</v>
+        <v>36472</v>
       </c>
       <c r="G100" s="9">
-        <v>36472</v>
+        <v>40000</v>
       </c>
       <c r="H100" s="9">
         <v>40000</v>
       </c>
       <c r="I100" s="9">
-        <v>40000</v>
+        <v>-22288</v>
       </c>
       <c r="J100" s="9">
-        <v>-22288</v>
+        <v>40932812</v>
       </c>
       <c r="K100" s="9">
-        <v>40932812</v>
+        <v>140711380</v>
       </c>
       <c r="L100" s="9">
-        <v>140711380</v>
+        <v>164267857</v>
       </c>
       <c r="M100" s="9">
-        <v>164267857</v>
+        <v>157431884</v>
       </c>
       <c r="N100" s="9">
-        <v>157431884</v>
-      </c>
-    </row>
-    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
+        <v>46610</v>
+      </c>
+    </row>
+    <row r="101" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B101" s="10" t="s">
         <v>32</v>
       </c>
@@ -3395,32 +3395,32 @@
       <c r="F101" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="G101" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="H101" s="11">
+      <c r="G101" s="11">
         <v>756087000000</v>
       </c>
+      <c r="H101" s="11" t="s">
+        <v>31</v>
+      </c>
       <c r="I101" s="11" t="s">
         <v>31</v>
       </c>
       <c r="J101" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="K101" s="11" t="s">
-        <v>31</v>
+      <c r="K101" s="11">
+        <v>1139877000000</v>
       </c>
       <c r="L101" s="11">
-        <v>1139877000000</v>
+        <v>118640541</v>
       </c>
       <c r="M101" s="11">
-        <v>118640541</v>
+        <v>165724031</v>
       </c>
       <c r="N101" s="11">
-        <v>165724031</v>
-      </c>
-    </row>
-    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
+        <v>157108020</v>
+      </c>
+    </row>
+    <row r="102" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
@@ -3435,7 +3435,7 @@
       <c r="M102" s="1"/>
       <c r="N102" s="1"/>
     </row>
-    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
@@ -3450,7 +3450,7 @@
       <c r="M103" s="1"/>
       <c r="N103" s="1"/>
     </row>
-    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
@@ -3465,7 +3465,7 @@
       <c r="M104" s="1"/>
       <c r="N104" s="1"/>
     </row>
-    <row r="105" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B105" s="7" t="s">
         <v>46</v>
       </c>
@@ -3502,7 +3502,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
@@ -3517,7 +3517,7 @@
       <c r="M106" s="1"/>
       <c r="N106" s="1"/>
     </row>
-    <row r="107" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B107" s="8" t="s">
         <v>29</v>
       </c>
@@ -3526,37 +3526,37 @@
       </c>
       <c r="D107" s="9"/>
       <c r="E107" s="9">
-        <v>16207</v>
+        <v>33054</v>
       </c>
       <c r="F107" s="9">
-        <v>33054</v>
+        <v>36419</v>
       </c>
       <c r="G107" s="9">
-        <v>36419</v>
+        <v>40000</v>
       </c>
       <c r="H107" s="9">
         <v>40000</v>
       </c>
       <c r="I107" s="9">
-        <v>40000</v>
+        <v>-22288</v>
       </c>
       <c r="J107" s="9">
-        <v>-22288</v>
+        <v>40932812</v>
       </c>
       <c r="K107" s="9">
-        <v>40932812</v>
+        <v>140711380</v>
       </c>
       <c r="L107" s="9">
-        <v>140711380</v>
+        <v>164433958</v>
       </c>
       <c r="M107" s="9">
-        <v>164433958</v>
+        <v>157454515</v>
       </c>
       <c r="N107" s="9">
-        <v>157454515</v>
-      </c>
-    </row>
-    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
+        <v>47565</v>
+      </c>
+    </row>
+    <row r="108" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B108" s="10" t="s">
         <v>32</v>
       </c>
@@ -3570,32 +3570,32 @@
       <c r="F108" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="G108" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="H108" s="11">
+      <c r="G108" s="11">
         <v>756087000000</v>
       </c>
+      <c r="H108" s="11" t="s">
+        <v>31</v>
+      </c>
       <c r="I108" s="11" t="s">
         <v>31</v>
       </c>
       <c r="J108" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="K108" s="11" t="s">
-        <v>31</v>
+      <c r="K108" s="11">
+        <v>1139877000000</v>
       </c>
       <c r="L108" s="11">
-        <v>1139877000000</v>
+        <v>90468622</v>
       </c>
       <c r="M108" s="11">
-        <v>90468622</v>
+        <v>175504271</v>
       </c>
       <c r="N108" s="11">
-        <v>175504271</v>
-      </c>
-    </row>
-    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
+        <v>174642571</v>
+      </c>
+    </row>
+    <row r="109" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
@@ -3610,7 +3610,7 @@
       <c r="M109" s="1"/>
       <c r="N109" s="1"/>
     </row>
-    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
@@ -3625,7 +3625,7 @@
       <c r="M110" s="1"/>
       <c r="N110" s="1"/>
     </row>
-    <row r="111" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
@@ -3640,7 +3640,7 @@
       <c r="M111" s="1"/>
       <c r="N111" s="1"/>
     </row>
-    <row r="112" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B112" s="7" t="s">
         <v>47</v>
       </c>
@@ -3677,7 +3677,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="113" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
@@ -3692,7 +3692,7 @@
       <c r="M113" s="1"/>
       <c r="N113" s="1"/>
     </row>
-    <row r="114" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B114" s="8" t="s">
         <v>29</v>
       </c>
@@ -3721,17 +3721,17 @@
       <c r="K114" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="L114" s="9" t="s">
-        <v>31</v>
+      <c r="L114" s="9">
+        <v>158239492</v>
       </c>
       <c r="M114" s="9">
-        <v>158239492</v>
-      </c>
-      <c r="N114" s="9">
         <v>157263551</v>
       </c>
-    </row>
-    <row r="115" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="N114" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="115" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B115" s="10" t="s">
         <v>32</v>
       </c>
@@ -3760,17 +3760,17 @@
       <c r="K115" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="L115" s="11" t="s">
-        <v>31</v>
+      <c r="L115" s="11">
+        <v>141068957</v>
       </c>
       <c r="M115" s="11">
-        <v>141068957</v>
+        <v>131885848</v>
       </c>
       <c r="N115" s="11">
-        <v>131885848</v>
-      </c>
-    </row>
-    <row r="116" spans="2:14" x14ac:dyDescent="0.25">
+        <v>108079704</v>
+      </c>
+    </row>
+    <row r="116" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
@@ -3785,7 +3785,7 @@
       <c r="M116" s="1"/>
       <c r="N116" s="1"/>
     </row>
-    <row r="117" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
@@ -3800,7 +3800,7 @@
       <c r="M117" s="1"/>
       <c r="N117" s="1"/>
     </row>
-    <row r="118" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
@@ -3815,7 +3815,7 @@
       <c r="M118" s="1"/>
       <c r="N118" s="1"/>
     </row>
-    <row r="119" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B119" s="7" t="s">
         <v>48</v>
       </c>
@@ -3852,7 +3852,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="120" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
@@ -3867,7 +3867,7 @@
       <c r="M120" s="1"/>
       <c r="N120" s="1"/>
     </row>
-    <row r="121" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B121" s="8" t="s">
         <v>49</v>
       </c>
@@ -3904,7 +3904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B122" s="10" t="s">
         <v>50</v>
       </c>
@@ -3941,7 +3941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B123" s="8" t="s">
         <v>51</v>
       </c>
@@ -3978,7 +3978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B124" s="10" t="s">
         <v>52</v>
       </c>
@@ -4015,7 +4015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B125" s="8" t="s">
         <v>53</v>
       </c>
@@ -4052,118 +4052,118 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B126" s="10" t="s">
         <v>54</v>
       </c>
       <c r="C126" s="11"/>
       <c r="D126" s="11"/>
       <c r="E126" s="11">
-        <v>10011</v>
+        <v>10338</v>
       </c>
       <c r="F126" s="11">
-        <v>10338</v>
+        <v>6043</v>
       </c>
       <c r="G126" s="11">
-        <v>6043</v>
+        <v>8087</v>
       </c>
       <c r="H126" s="11">
-        <v>8087</v>
+        <v>10325</v>
       </c>
       <c r="I126" s="11">
-        <v>10325</v>
+        <v>26646</v>
       </c>
       <c r="J126" s="11">
-        <v>26646</v>
+        <v>25136</v>
       </c>
       <c r="K126" s="11">
-        <v>25136</v>
+        <v>6117</v>
       </c>
       <c r="L126" s="11">
-        <v>6117</v>
+        <v>14518</v>
       </c>
       <c r="M126" s="11">
-        <v>14518</v>
+        <v>12962</v>
       </c>
       <c r="N126" s="11">
-        <v>12962</v>
-      </c>
-    </row>
-    <row r="127" spans="2:14" x14ac:dyDescent="0.25">
+        <v>15258</v>
+      </c>
+    </row>
+    <row r="127" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B127" s="8" t="s">
         <v>55</v>
       </c>
       <c r="C127" s="9"/>
       <c r="D127" s="9"/>
       <c r="E127" s="9">
-        <v>41158</v>
+        <v>40822</v>
       </c>
       <c r="F127" s="9">
-        <v>40822</v>
+        <v>60090</v>
       </c>
       <c r="G127" s="9">
-        <v>60090</v>
+        <v>47699</v>
       </c>
       <c r="H127" s="9">
-        <v>47699</v>
+        <v>51654</v>
       </c>
       <c r="I127" s="9">
-        <v>51654</v>
+        <v>38101</v>
       </c>
       <c r="J127" s="9">
-        <v>38101</v>
+        <v>39265</v>
       </c>
       <c r="K127" s="9">
-        <v>39265</v>
+        <v>40719</v>
       </c>
       <c r="L127" s="9">
-        <v>40719</v>
+        <v>43264</v>
       </c>
       <c r="M127" s="9">
-        <v>43264</v>
+        <v>55756</v>
       </c>
       <c r="N127" s="9">
-        <v>55756</v>
-      </c>
-    </row>
-    <row r="128" spans="2:14" x14ac:dyDescent="0.25">
+        <v>110359</v>
+      </c>
+    </row>
+    <row r="128" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B128" s="10" t="s">
         <v>56</v>
       </c>
       <c r="C128" s="11"/>
       <c r="D128" s="11"/>
       <c r="E128" s="11">
-        <v>42568</v>
+        <v>40317</v>
       </c>
       <c r="F128" s="11">
-        <v>40317</v>
+        <v>51423</v>
       </c>
       <c r="G128" s="11">
-        <v>51423</v>
+        <v>67471</v>
       </c>
       <c r="H128" s="11">
-        <v>67471</v>
+        <v>70839</v>
       </c>
       <c r="I128" s="11">
-        <v>70839</v>
+        <v>76101</v>
       </c>
       <c r="J128" s="11">
-        <v>76101</v>
+        <v>85089</v>
       </c>
       <c r="K128" s="11">
-        <v>85089</v>
+        <v>147020</v>
       </c>
       <c r="L128" s="11">
-        <v>147020</v>
+        <v>147200</v>
       </c>
       <c r="M128" s="11">
-        <v>147200</v>
+        <v>157624</v>
       </c>
       <c r="N128" s="11">
-        <v>157624</v>
-      </c>
-    </row>
-    <row r="129" spans="2:14" x14ac:dyDescent="0.25">
+        <v>172166</v>
+      </c>
+    </row>
+    <row r="129" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B129" s="8" t="s">
         <v>57</v>
       </c>
@@ -4200,81 +4200,81 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B130" s="10" t="s">
         <v>58</v>
       </c>
       <c r="C130" s="11"/>
       <c r="D130" s="11"/>
       <c r="E130" s="11">
-        <v>17011</v>
+        <v>66727</v>
       </c>
       <c r="F130" s="11">
-        <v>66727</v>
+        <v>43187</v>
       </c>
       <c r="G130" s="11">
-        <v>43187</v>
+        <v>56032</v>
       </c>
       <c r="H130" s="11">
-        <v>56032</v>
+        <v>87354</v>
       </c>
       <c r="I130" s="11">
-        <v>87354</v>
+        <v>45047</v>
       </c>
       <c r="J130" s="11">
-        <v>45047</v>
+        <v>219150</v>
       </c>
       <c r="K130" s="11">
-        <v>219150</v>
+        <v>116279</v>
       </c>
       <c r="L130" s="11">
-        <v>116279</v>
+        <v>122537</v>
       </c>
       <c r="M130" s="11">
-        <v>122537</v>
+        <v>19534</v>
       </c>
       <c r="N130" s="11">
-        <v>19534</v>
-      </c>
-    </row>
-    <row r="131" spans="2:14" x14ac:dyDescent="0.25">
+        <v>211760</v>
+      </c>
+    </row>
+    <row r="131" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B131" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C131" s="15"/>
       <c r="D131" s="15"/>
       <c r="E131" s="15">
-        <v>110748</v>
+        <v>158204</v>
       </c>
       <c r="F131" s="15">
-        <v>158204</v>
+        <v>160743</v>
       </c>
       <c r="G131" s="15">
-        <v>160743</v>
+        <v>179289</v>
       </c>
       <c r="H131" s="15">
-        <v>179289</v>
+        <v>220172</v>
       </c>
       <c r="I131" s="15">
-        <v>220172</v>
+        <v>185895</v>
       </c>
       <c r="J131" s="15">
-        <v>185895</v>
+        <v>368640</v>
       </c>
       <c r="K131" s="15">
-        <v>368640</v>
+        <v>310135</v>
       </c>
       <c r="L131" s="15">
-        <v>310135</v>
+        <v>327519</v>
       </c>
       <c r="M131" s="15">
-        <v>327519</v>
+        <v>245876</v>
       </c>
       <c r="N131" s="15">
-        <v>245876</v>
-      </c>
-    </row>
-    <row r="135" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+        <v>509543</v>
+      </c>
+    </row>
+    <row r="135" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B135" s="7" t="s">
         <v>59</v>
       </c>
@@ -4283,7 +4283,7 @@
       <c r="E135" s="6"/>
       <c r="F135" s="6"/>
     </row>
-    <row r="137" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B137" s="8" t="s">
         <v>60</v>
       </c>
@@ -4294,7 +4294,7 @@
       <c r="E137" s="9"/>
       <c r="F137" s="9"/>
     </row>
-    <row r="138" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B138" s="10" t="s">
         <v>62</v>
       </c>
@@ -4305,7 +4305,7 @@
       <c r="E138" s="11"/>
       <c r="F138" s="11"/>
     </row>
-    <row r="139" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B139" s="8" t="s">
         <v>64</v>
       </c>
@@ -4316,7 +4316,7 @@
       <c r="E139" s="9"/>
       <c r="F139" s="9"/>
     </row>
-    <row r="140" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B140" s="10" t="s">
         <v>66</v>
       </c>
@@ -4327,7 +4327,7 @@
       <c r="E140" s="11"/>
       <c r="F140" s="11"/>
     </row>
-    <row r="141" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B141" s="8" t="s">
         <v>67</v>
       </c>
